--- a/data/check/eduoffice_reports.xlsx
+++ b/data/check/eduoffice_reports.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="546">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="548">
   <si>
     <t>host</t>
   </si>
@@ -1657,6 +1657,12 @@
   </si>
   <si>
     <t>sch386.mskobr.ru</t>
+  </si>
+  <si>
+    <t>incoming_total</t>
+  </si>
+  <si>
+    <t>incoming_from_0</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1693,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1710,13 +1716,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -2013,15 +2033,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D543"/>
+  <dimension ref="A1:F543"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A245" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265:XFD265"/>
+    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2034,8 +2054,14 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="2" t="s">
+        <v>546</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -2048,8 +2074,14 @@
       <c r="D2">
         <v>75686.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>215</v>
+      </c>
+      <c r="F2">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2062,8 +2094,14 @@
       <c r="D3">
         <v>79858.399999999994</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>208</v>
+      </c>
+      <c r="F3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2076,8 +2114,14 @@
       <c r="D4">
         <v>74085.600000000006</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>209</v>
+      </c>
+      <c r="F4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2090,8 +2134,14 @@
       <c r="D5">
         <v>74687.199999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>108</v>
+      </c>
+      <c r="F5">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2104,8 +2154,14 @@
       <c r="D6">
         <v>72912.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2118,8 +2174,14 @@
       <c r="D7">
         <v>72380.7</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>61</v>
+      </c>
+      <c r="F7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2132,8 +2194,14 @@
       <c r="D8">
         <v>76777.8</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>114</v>
+      </c>
+      <c r="F8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -2146,8 +2214,14 @@
       <c r="D9">
         <v>69156.899999999994</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>253</v>
+      </c>
+      <c r="F9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -2160,8 +2234,14 @@
       <c r="D10">
         <v>70346</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>137</v>
+      </c>
+      <c r="F10">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2174,8 +2254,14 @@
       <c r="D11">
         <v>82175.100000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>235</v>
+      </c>
+      <c r="F11">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2188,8 +2274,14 @@
       <c r="D12">
         <v>77060.600000000006</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>132</v>
+      </c>
+      <c r="F12">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2202,8 +2294,14 @@
       <c r="D13">
         <v>72311.399999999994</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>90</v>
+      </c>
+      <c r="F13">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -2216,8 +2314,14 @@
       <c r="D14">
         <v>82279.899999999994</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>466</v>
+      </c>
+      <c r="F14">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2230,8 +2334,14 @@
       <c r="D15">
         <v>70200.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>48</v>
+      </c>
+      <c r="F15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -2244,8 +2354,14 @@
       <c r="D16">
         <v>76618.899999999994</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>249</v>
+      </c>
+      <c r="F16">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2258,8 +2374,14 @@
       <c r="D17">
         <v>86314.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>238</v>
+      </c>
+      <c r="F17">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2272,8 +2394,14 @@
       <c r="D18">
         <v>72462.3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>112</v>
+      </c>
+      <c r="F18">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2286,8 +2414,14 @@
       <c r="D19">
         <v>82258.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>131</v>
+      </c>
+      <c r="F19">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>22</v>
       </c>
@@ -2300,8 +2434,14 @@
       <c r="D20">
         <v>106921.60000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20">
+        <v>123</v>
+      </c>
+      <c r="F20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -2314,8 +2454,14 @@
       <c r="D21">
         <v>79355.899999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21">
+        <v>233</v>
+      </c>
+      <c r="F21">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -2328,8 +2474,14 @@
       <c r="D22">
         <v>78049.399999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22">
+        <v>109</v>
+      </c>
+      <c r="F22">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -2342,8 +2494,14 @@
       <c r="D23">
         <v>71662.899999999994</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23">
+        <v>128</v>
+      </c>
+      <c r="F23">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>26</v>
       </c>
@@ -2356,8 +2514,14 @@
       <c r="D24">
         <v>82487.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24">
+        <v>82</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>27</v>
       </c>
@@ -2370,8 +2534,14 @@
       <c r="D25">
         <v>75792.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25">
+        <v>195</v>
+      </c>
+      <c r="F25">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>28</v>
       </c>
@@ -2384,8 +2554,14 @@
       <c r="D26">
         <v>73022.899999999994</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26">
+        <v>51</v>
+      </c>
+      <c r="F26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>29</v>
       </c>
@@ -2398,8 +2574,14 @@
       <c r="D27">
         <v>68594.100000000006</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>144</v>
+      </c>
+      <c r="F27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>30</v>
       </c>
@@ -2412,8 +2594,14 @@
       <c r="D28">
         <v>74999.600000000006</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28">
+        <v>149</v>
+      </c>
+      <c r="F28">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>31</v>
       </c>
@@ -2426,8 +2614,14 @@
       <c r="D29">
         <v>75083.899999999994</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29">
+        <v>239</v>
+      </c>
+      <c r="F29">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>32</v>
       </c>
@@ -2440,8 +2634,14 @@
       <c r="D30">
         <v>69349.2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30">
+        <v>130</v>
+      </c>
+      <c r="F30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>33</v>
       </c>
@@ -2454,8 +2654,14 @@
       <c r="D31">
         <v>70537.600000000006</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31">
+        <v>99</v>
+      </c>
+      <c r="F31">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>34</v>
       </c>
@@ -2468,8 +2674,14 @@
       <c r="D32">
         <v>71487.600000000006</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32">
+        <v>212</v>
+      </c>
+      <c r="F32">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>35</v>
       </c>
@@ -2482,8 +2694,14 @@
       <c r="D33">
         <v>76078</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33">
+        <v>145</v>
+      </c>
+      <c r="F33">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>36</v>
       </c>
@@ -2496,8 +2714,14 @@
       <c r="D34">
         <v>68583.3</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34">
+        <v>80</v>
+      </c>
+      <c r="F34">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>37</v>
       </c>
@@ -2510,8 +2734,14 @@
       <c r="D35">
         <v>74966.399999999994</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>91</v>
+      </c>
+      <c r="F35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>38</v>
       </c>
@@ -2524,8 +2754,14 @@
       <c r="D36">
         <v>73567.600000000006</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36">
+        <v>72</v>
+      </c>
+      <c r="F36">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>39</v>
       </c>
@@ -2538,8 +2774,14 @@
       <c r="D37">
         <v>71604.899999999994</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>182</v>
+      </c>
+      <c r="F37">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -2552,8 +2794,14 @@
       <c r="D38">
         <v>75164.7</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>142</v>
+      </c>
+      <c r="F38">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -2566,8 +2814,14 @@
       <c r="D39">
         <v>78326.100000000006</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39">
+        <v>157</v>
+      </c>
+      <c r="F39">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -2580,8 +2834,14 @@
       <c r="D40">
         <v>79299.600000000006</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40">
+        <v>292</v>
+      </c>
+      <c r="F40">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>43</v>
       </c>
@@ -2594,8 +2854,14 @@
       <c r="D41">
         <v>82703.199999999997</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41">
+        <v>83</v>
+      </c>
+      <c r="F41">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2608,8 +2874,14 @@
       <c r="D42">
         <v>78972.3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>131</v>
+      </c>
+      <c r="F42">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>45</v>
       </c>
@@ -2622,8 +2894,14 @@
       <c r="D43">
         <v>72913.100000000006</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43">
+        <v>68</v>
+      </c>
+      <c r="F43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>46</v>
       </c>
@@ -2636,8 +2914,14 @@
       <c r="D44">
         <v>78851</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44">
+        <v>489</v>
+      </c>
+      <c r="F44">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>47</v>
       </c>
@@ -2650,8 +2934,14 @@
       <c r="D45">
         <v>72317.899999999994</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>177</v>
+      </c>
+      <c r="F45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>48</v>
       </c>
@@ -2664,8 +2954,14 @@
       <c r="D46">
         <v>73575.8</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46">
+        <v>199</v>
+      </c>
+      <c r="F46">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>49</v>
       </c>
@@ -2678,8 +2974,14 @@
       <c r="D47">
         <v>76765.899999999994</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47">
+        <v>105</v>
+      </c>
+      <c r="F47">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -2692,8 +2994,14 @@
       <c r="D48">
         <v>74235.899999999994</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48">
+        <v>119</v>
+      </c>
+      <c r="F48">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -2706,8 +3014,14 @@
       <c r="D49">
         <v>74048.2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>86</v>
+      </c>
+      <c r="F49">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>52</v>
       </c>
@@ -2720,8 +3034,14 @@
       <c r="D50">
         <v>75726.3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" t="s">
         <v>53</v>
       </c>
@@ -2734,8 +3054,14 @@
       <c r="D51">
         <v>75757.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>113</v>
+      </c>
+      <c r="F51">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" t="s">
         <v>54</v>
       </c>
@@ -2748,8 +3074,14 @@
       <c r="D52">
         <v>70003</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>50</v>
+      </c>
+      <c r="F52">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" t="s">
         <v>55</v>
       </c>
@@ -2762,8 +3094,14 @@
       <c r="D53">
         <v>71916.899999999994</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53">
+        <v>36</v>
+      </c>
+      <c r="F53">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" t="s">
         <v>56</v>
       </c>
@@ -2776,8 +3114,14 @@
       <c r="D54">
         <v>72847.3</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54">
+        <v>175</v>
+      </c>
+      <c r="F54">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" t="s">
         <v>57</v>
       </c>
@@ -2790,8 +3134,14 @@
       <c r="D55">
         <v>71541.8</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55">
+        <v>104</v>
+      </c>
+      <c r="F55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" t="s">
         <v>58</v>
       </c>
@@ -2804,8 +3154,14 @@
       <c r="D56">
         <v>72150.399999999994</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56">
+        <v>215</v>
+      </c>
+      <c r="F56">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" t="s">
         <v>59</v>
       </c>
@@ -2818,8 +3174,14 @@
       <c r="D57">
         <v>72424.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>129</v>
+      </c>
+      <c r="F57">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" t="s">
         <v>60</v>
       </c>
@@ -2832,8 +3194,14 @@
       <c r="D58">
         <v>82151.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58">
+        <v>166</v>
+      </c>
+      <c r="F58">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" t="s">
         <v>61</v>
       </c>
@@ -2846,8 +3214,14 @@
       <c r="D59">
         <v>75904.399999999994</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59">
+        <v>110</v>
+      </c>
+      <c r="F59">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" t="s">
         <v>62</v>
       </c>
@@ -2860,8 +3234,14 @@
       <c r="D60">
         <v>74926.399999999994</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60">
+        <v>183</v>
+      </c>
+      <c r="F60">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" t="s">
         <v>63</v>
       </c>
@@ -2874,8 +3254,14 @@
       <c r="D61">
         <v>75892.600000000006</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61">
+        <v>169</v>
+      </c>
+      <c r="F61">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" t="s">
         <v>64</v>
       </c>
@@ -2888,8 +3274,14 @@
       <c r="D62">
         <v>76345.600000000006</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>147</v>
+      </c>
+      <c r="F62">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" t="s">
         <v>65</v>
       </c>
@@ -2902,8 +3294,14 @@
       <c r="D63">
         <v>70671.600000000006</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63">
+        <v>241</v>
+      </c>
+      <c r="F63">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" t="s">
         <v>66</v>
       </c>
@@ -2916,8 +3314,14 @@
       <c r="D64">
         <v>73352.2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4">
+      <c r="E64">
+        <v>106</v>
+      </c>
+      <c r="F64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" t="s">
         <v>67</v>
       </c>
@@ -2930,8 +3334,14 @@
       <c r="D65">
         <v>72315.7</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
+      <c r="E65">
+        <v>319</v>
+      </c>
+      <c r="F65">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" t="s">
         <v>68</v>
       </c>
@@ -2944,8 +3354,14 @@
       <c r="D66">
         <v>85894.1</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
+      <c r="E66">
+        <v>103</v>
+      </c>
+      <c r="F66">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" t="s">
         <v>69</v>
       </c>
@@ -2958,8 +3374,14 @@
       <c r="D67">
         <v>76590.899999999994</v>
       </c>
-    </row>
-    <row r="68" spans="1:4">
+      <c r="E67">
+        <v>118</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -2972,8 +3394,14 @@
       <c r="D68">
         <v>89053.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
+      <c r="E68">
+        <v>50</v>
+      </c>
+      <c r="F68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" t="s">
         <v>71</v>
       </c>
@@ -2986,8 +3414,14 @@
       <c r="D69">
         <v>66456.100000000006</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
+      <c r="E69">
+        <v>27</v>
+      </c>
+      <c r="F69">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" t="s">
         <v>72</v>
       </c>
@@ -3000,8 +3434,14 @@
       <c r="D70">
         <v>76688.800000000003</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>236</v>
+      </c>
+      <c r="F70">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" t="s">
         <v>73</v>
       </c>
@@ -3014,8 +3454,14 @@
       <c r="D71">
         <v>70392.2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4">
+      <c r="E71">
+        <v>69</v>
+      </c>
+      <c r="F71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" t="s">
         <v>74</v>
       </c>
@@ -3028,8 +3474,14 @@
       <c r="D72">
         <v>68876.100000000006</v>
       </c>
-    </row>
-    <row r="73" spans="1:4">
+      <c r="E72">
+        <v>81</v>
+      </c>
+      <c r="F72">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" t="s">
         <v>75</v>
       </c>
@@ -3042,8 +3494,14 @@
       <c r="D73">
         <v>73967.3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="E73">
+        <v>149</v>
+      </c>
+      <c r="F73">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" t="s">
         <v>76</v>
       </c>
@@ -3056,8 +3514,14 @@
       <c r="D74">
         <v>73224.800000000003</v>
       </c>
-    </row>
-    <row r="75" spans="1:4">
+      <c r="E74">
+        <v>109</v>
+      </c>
+      <c r="F74">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" t="s">
         <v>77</v>
       </c>
@@ -3070,8 +3534,14 @@
       <c r="D75">
         <v>76591.199999999997</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
+      <c r="E75">
+        <v>261</v>
+      </c>
+      <c r="F75">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" t="s">
         <v>78</v>
       </c>
@@ -3084,8 +3554,14 @@
       <c r="D76">
         <v>74758.399999999994</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>223</v>
+      </c>
+      <c r="F76">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" t="s">
         <v>79</v>
       </c>
@@ -3098,8 +3574,14 @@
       <c r="D77">
         <v>72331.600000000006</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
+      <c r="E77">
+        <v>100</v>
+      </c>
+      <c r="F77">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" t="s">
         <v>80</v>
       </c>
@@ -3112,8 +3594,14 @@
       <c r="D78">
         <v>68790.7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -3126,8 +3614,14 @@
       <c r="D79">
         <v>79705.600000000006</v>
       </c>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="E79">
+        <v>124</v>
+      </c>
+      <c r="F79">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" t="s">
         <v>82</v>
       </c>
@@ -3140,8 +3634,14 @@
       <c r="D80">
         <v>84056.4</v>
       </c>
-    </row>
-    <row r="81" spans="1:4">
+      <c r="E80">
+        <v>225</v>
+      </c>
+      <c r="F80">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" t="s">
         <v>83</v>
       </c>
@@ -3154,8 +3654,14 @@
       <c r="D81">
         <v>67607.8</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
+      <c r="E81">
+        <v>28</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" t="s">
         <v>84</v>
       </c>
@@ -3168,8 +3674,14 @@
       <c r="D82">
         <v>85044.2</v>
       </c>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="E82">
+        <v>74</v>
+      </c>
+      <c r="F82">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" t="s">
         <v>85</v>
       </c>
@@ -3182,8 +3694,14 @@
       <c r="D83">
         <v>88728.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:4">
+      <c r="E83">
+        <v>217</v>
+      </c>
+      <c r="F83">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -3196,8 +3714,14 @@
       <c r="D84">
         <v>72745.3</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>81</v>
+      </c>
+      <c r="F84">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" t="s">
         <v>87</v>
       </c>
@@ -3210,8 +3734,14 @@
       <c r="D85">
         <v>78061.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="E85">
+        <v>181</v>
+      </c>
+      <c r="F85">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" t="s">
         <v>88</v>
       </c>
@@ -3224,8 +3754,14 @@
       <c r="D86">
         <v>70984.800000000003</v>
       </c>
-    </row>
-    <row r="87" spans="1:4">
+      <c r="E86">
+        <v>101</v>
+      </c>
+      <c r="F86">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" t="s">
         <v>89</v>
       </c>
@@ -3238,8 +3774,14 @@
       <c r="D87">
         <v>77145</v>
       </c>
-    </row>
-    <row r="88" spans="1:4">
+      <c r="E87">
+        <v>126</v>
+      </c>
+      <c r="F87">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" t="s">
         <v>90</v>
       </c>
@@ -3252,8 +3794,14 @@
       <c r="D88">
         <v>73385</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="E88">
+        <v>52</v>
+      </c>
+      <c r="F88">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -3266,8 +3814,14 @@
       <c r="D89">
         <v>78597.600000000006</v>
       </c>
-    </row>
-    <row r="90" spans="1:4">
+      <c r="E89">
+        <v>149</v>
+      </c>
+      <c r="F89">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" t="s">
         <v>92</v>
       </c>
@@ -3280,8 +3834,14 @@
       <c r="D90">
         <v>70986.899999999994</v>
       </c>
-    </row>
-    <row r="91" spans="1:4">
+      <c r="E90">
+        <v>64</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" t="s">
         <v>93</v>
       </c>
@@ -3294,8 +3854,14 @@
       <c r="D91">
         <v>73281.7</v>
       </c>
-    </row>
-    <row r="92" spans="1:4">
+      <c r="E91">
+        <v>248</v>
+      </c>
+      <c r="F91">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" t="s">
         <v>94</v>
       </c>
@@ -3308,8 +3874,14 @@
       <c r="D92">
         <v>77454.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
+      <c r="E92">
+        <v>181</v>
+      </c>
+      <c r="F92">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" t="s">
         <v>95</v>
       </c>
@@ -3322,8 +3894,14 @@
       <c r="D93">
         <v>75420</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
+      <c r="E93">
+        <v>195</v>
+      </c>
+      <c r="F93">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" t="s">
         <v>96</v>
       </c>
@@ -3336,8 +3914,14 @@
       <c r="D94">
         <v>75679.399999999994</v>
       </c>
-    </row>
-    <row r="95" spans="1:4">
+      <c r="E94">
+        <v>157</v>
+      </c>
+      <c r="F94">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" t="s">
         <v>97</v>
       </c>
@@ -3350,8 +3934,14 @@
       <c r="D95">
         <v>73154.399999999994</v>
       </c>
-    </row>
-    <row r="96" spans="1:4">
+      <c r="E95">
+        <v>183</v>
+      </c>
+      <c r="F95">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" t="s">
         <v>98</v>
       </c>
@@ -3364,8 +3954,14 @@
       <c r="D96">
         <v>72320.800000000003</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>141</v>
+      </c>
+      <c r="F96">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" t="s">
         <v>99</v>
       </c>
@@ -3378,8 +3974,14 @@
       <c r="D97">
         <v>78247.8</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>167</v>
+      </c>
+      <c r="F97">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" t="s">
         <v>100</v>
       </c>
@@ -3392,8 +3994,14 @@
       <c r="D98">
         <v>72233.899999999994</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
+      <c r="E98">
+        <v>118</v>
+      </c>
+      <c r="F98">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" t="s">
         <v>101</v>
       </c>
@@ -3406,8 +4014,14 @@
       <c r="D99">
         <v>72237.600000000006</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>285</v>
+      </c>
+      <c r="F99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" t="s">
         <v>102</v>
       </c>
@@ -3420,8 +4034,14 @@
       <c r="D100">
         <v>76278.8</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>120</v>
+      </c>
+      <c r="F100">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" t="s">
         <v>103</v>
       </c>
@@ -3434,8 +4054,14 @@
       <c r="D101">
         <v>75027.399999999994</v>
       </c>
-    </row>
-    <row r="102" spans="1:4">
+      <c r="E101">
+        <v>142</v>
+      </c>
+      <c r="F101">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" t="s">
         <v>104</v>
       </c>
@@ -3448,8 +4074,14 @@
       <c r="D102">
         <v>71698</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>59</v>
+      </c>
+      <c r="F102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" t="s">
         <v>105</v>
       </c>
@@ -3462,8 +4094,14 @@
       <c r="D103">
         <v>73300.399999999994</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>90</v>
+      </c>
+      <c r="F103">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" t="s">
         <v>106</v>
       </c>
@@ -3476,8 +4114,14 @@
       <c r="D104">
         <v>78428.899999999994</v>
       </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="E104">
+        <v>208</v>
+      </c>
+      <c r="F104">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
       <c r="A105" t="s">
         <v>107</v>
       </c>
@@ -3490,8 +4134,14 @@
       <c r="D105">
         <v>69123.100000000006</v>
       </c>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="E105">
+        <v>105</v>
+      </c>
+      <c r="F105">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
       <c r="A106" t="s">
         <v>108</v>
       </c>
@@ -3504,8 +4154,14 @@
       <c r="D106">
         <v>67641.3</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
+      <c r="E106">
+        <v>131</v>
+      </c>
+      <c r="F106">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
       <c r="A107" t="s">
         <v>109</v>
       </c>
@@ -3518,8 +4174,14 @@
       <c r="D107">
         <v>81640.899999999994</v>
       </c>
-    </row>
-    <row r="108" spans="1:4">
+      <c r="E107">
+        <v>204</v>
+      </c>
+      <c r="F107">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
       <c r="A108" t="s">
         <v>110</v>
       </c>
@@ -3532,8 +4194,14 @@
       <c r="D108">
         <v>83763</v>
       </c>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="E108">
+        <v>104</v>
+      </c>
+      <c r="F108">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
       <c r="A109" t="s">
         <v>111</v>
       </c>
@@ -3546,8 +4214,14 @@
       <c r="D109">
         <v>82465.600000000006</v>
       </c>
-    </row>
-    <row r="110" spans="1:4">
+      <c r="E109">
+        <v>164</v>
+      </c>
+      <c r="F109">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
       <c r="A110" t="s">
         <v>112</v>
       </c>
@@ -3560,8 +4234,14 @@
       <c r="D110">
         <v>68103.3</v>
       </c>
-    </row>
-    <row r="111" spans="1:4">
+      <c r="E110">
+        <v>81</v>
+      </c>
+      <c r="F110">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
       <c r="A111" t="s">
         <v>113</v>
       </c>
@@ -3574,8 +4254,14 @@
       <c r="D111">
         <v>81275.3</v>
       </c>
-    </row>
-    <row r="112" spans="1:4">
+      <c r="E111">
+        <v>295</v>
+      </c>
+      <c r="F111">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
       <c r="A112" t="s">
         <v>114</v>
       </c>
@@ -3588,8 +4274,14 @@
       <c r="D112">
         <v>69561</v>
       </c>
-    </row>
-    <row r="113" spans="1:4">
+      <c r="E112">
+        <v>169</v>
+      </c>
+      <c r="F112">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
       <c r="A113" t="s">
         <v>115</v>
       </c>
@@ -3602,8 +4294,14 @@
       <c r="D113">
         <v>74579.3</v>
       </c>
-    </row>
-    <row r="114" spans="1:4">
+      <c r="E113">
+        <v>171</v>
+      </c>
+      <c r="F113">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
       <c r="A114" t="s">
         <v>116</v>
       </c>
@@ -3616,8 +4314,14 @@
       <c r="D114">
         <v>82302.3</v>
       </c>
-    </row>
-    <row r="115" spans="1:4">
+      <c r="E114">
+        <v>106</v>
+      </c>
+      <c r="F114">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
       <c r="A115" t="s">
         <v>117</v>
       </c>
@@ -3630,8 +4334,14 @@
       <c r="D115">
         <v>77458.600000000006</v>
       </c>
-    </row>
-    <row r="116" spans="1:4">
+      <c r="E115">
+        <v>87</v>
+      </c>
+      <c r="F115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6">
       <c r="A116" t="s">
         <v>118</v>
       </c>
@@ -3644,8 +4354,14 @@
       <c r="D116">
         <v>81745.7</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
+      <c r="E116">
+        <v>131</v>
+      </c>
+      <c r="F116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
       <c r="A117" t="s">
         <v>119</v>
       </c>
@@ -3658,8 +4374,14 @@
       <c r="D117">
         <v>74660.800000000003</v>
       </c>
-    </row>
-    <row r="118" spans="1:4">
+      <c r="E117">
+        <v>102</v>
+      </c>
+      <c r="F117">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
       <c r="A118" t="s">
         <v>120</v>
       </c>
@@ -3672,8 +4394,14 @@
       <c r="D118">
         <v>70612</v>
       </c>
-    </row>
-    <row r="119" spans="1:4">
+      <c r="E118">
+        <v>216</v>
+      </c>
+      <c r="F118">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
       <c r="A119" t="s">
         <v>121</v>
       </c>
@@ -3686,8 +4414,14 @@
       <c r="D119">
         <v>76245.899999999994</v>
       </c>
-    </row>
-    <row r="120" spans="1:4">
+      <c r="E119">
+        <v>63</v>
+      </c>
+      <c r="F119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
       <c r="A120" t="s">
         <v>122</v>
       </c>
@@ -3700,8 +4434,14 @@
       <c r="D120">
         <v>80206</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
+      <c r="E120">
+        <v>50</v>
+      </c>
+      <c r="F120">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
       <c r="A121" t="s">
         <v>123</v>
       </c>
@@ -3714,8 +4454,14 @@
       <c r="D121">
         <v>83272.800000000003</v>
       </c>
-    </row>
-    <row r="122" spans="1:4">
+      <c r="E121">
+        <v>140</v>
+      </c>
+      <c r="F121">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
       <c r="A122" t="s">
         <v>124</v>
       </c>
@@ -3728,8 +4474,14 @@
       <c r="D122">
         <v>80027.100000000006</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
+      <c r="E122">
+        <v>99</v>
+      </c>
+      <c r="F122">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
       <c r="A123" t="s">
         <v>125</v>
       </c>
@@ -3742,8 +4494,14 @@
       <c r="D123">
         <v>77776.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:4">
+      <c r="E123">
+        <v>110</v>
+      </c>
+      <c r="F123">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
       <c r="A124" t="s">
         <v>126</v>
       </c>
@@ -3756,8 +4514,14 @@
       <c r="D124">
         <v>71482.2</v>
       </c>
-    </row>
-    <row r="125" spans="1:4">
+      <c r="E124">
+        <v>219</v>
+      </c>
+      <c r="F124">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
       <c r="A125" t="s">
         <v>127</v>
       </c>
@@ -3770,8 +4534,14 @@
       <c r="D125">
         <v>76646.2</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
+      <c r="E125">
+        <v>103</v>
+      </c>
+      <c r="F125">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
       <c r="A126" t="s">
         <v>128</v>
       </c>
@@ -3784,8 +4554,14 @@
       <c r="D126">
         <v>72414.399999999994</v>
       </c>
-    </row>
-    <row r="127" spans="1:4">
+      <c r="E126">
+        <v>186</v>
+      </c>
+      <c r="F126">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
       <c r="A127" t="s">
         <v>129</v>
       </c>
@@ -3798,8 +4574,14 @@
       <c r="D127">
         <v>71439.899999999994</v>
       </c>
-    </row>
-    <row r="128" spans="1:4">
+      <c r="E127">
+        <v>104</v>
+      </c>
+      <c r="F127">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
       <c r="A128" t="s">
         <v>130</v>
       </c>
@@ -3812,8 +4594,14 @@
       <c r="D128">
         <v>74206.7</v>
       </c>
-    </row>
-    <row r="129" spans="1:4">
+      <c r="E128">
+        <v>139</v>
+      </c>
+      <c r="F128">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
       <c r="A129" t="s">
         <v>131</v>
       </c>
@@ -3826,8 +4614,14 @@
       <c r="D129">
         <v>68337.3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4">
+      <c r="E129">
+        <v>125</v>
+      </c>
+      <c r="F129">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
       <c r="A130" t="s">
         <v>132</v>
       </c>
@@ -3840,8 +4634,14 @@
       <c r="D130">
         <v>71362.899999999994</v>
       </c>
-    </row>
-    <row r="131" spans="1:4">
+      <c r="E130">
+        <v>85</v>
+      </c>
+      <c r="F130">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
       <c r="A131" t="s">
         <v>133</v>
       </c>
@@ -3854,8 +4654,14 @@
       <c r="D131">
         <v>76252.7</v>
       </c>
-    </row>
-    <row r="132" spans="1:4">
+      <c r="E131">
+        <v>122</v>
+      </c>
+      <c r="F131">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
       <c r="A132" t="s">
         <v>134</v>
       </c>
@@ -3868,8 +4674,14 @@
       <c r="D132">
         <v>69471.899999999994</v>
       </c>
-    </row>
-    <row r="133" spans="1:4">
+      <c r="E132">
+        <v>114</v>
+      </c>
+      <c r="F132">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
       <c r="A133" t="s">
         <v>135</v>
       </c>
@@ -3882,8 +4694,14 @@
       <c r="D133">
         <v>75402.3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4">
+      <c r="E133">
+        <v>64</v>
+      </c>
+      <c r="F133">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
       <c r="A134" t="s">
         <v>136</v>
       </c>
@@ -3896,8 +4714,14 @@
       <c r="D134">
         <v>76956</v>
       </c>
-    </row>
-    <row r="135" spans="1:4">
+      <c r="E134">
+        <v>203</v>
+      </c>
+      <c r="F134">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
       <c r="A135" t="s">
         <v>137</v>
       </c>
@@ -3910,8 +4734,14 @@
       <c r="D135">
         <v>72552.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:4">
+      <c r="E135">
+        <v>74</v>
+      </c>
+      <c r="F135">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
       <c r="A136" t="s">
         <v>138</v>
       </c>
@@ -3924,8 +4754,14 @@
       <c r="D136">
         <v>72842.100000000006</v>
       </c>
-    </row>
-    <row r="137" spans="1:4">
+      <c r="E136">
+        <v>217</v>
+      </c>
+      <c r="F136">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
       <c r="A137" t="s">
         <v>139</v>
       </c>
@@ -3938,8 +4774,14 @@
       <c r="D137">
         <v>76910</v>
       </c>
-    </row>
-    <row r="138" spans="1:4">
+      <c r="E137">
+        <v>114</v>
+      </c>
+      <c r="F137">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
       <c r="A138" t="s">
         <v>140</v>
       </c>
@@ -3952,8 +4794,14 @@
       <c r="D138">
         <v>75272.600000000006</v>
       </c>
-    </row>
-    <row r="139" spans="1:4">
+      <c r="E138">
+        <v>204</v>
+      </c>
+      <c r="F138">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
       <c r="A139" t="s">
         <v>141</v>
       </c>
@@ -3966,8 +4814,14 @@
       <c r="D139">
         <v>66307.100000000006</v>
       </c>
-    </row>
-    <row r="140" spans="1:4">
+      <c r="E139">
+        <v>111</v>
+      </c>
+      <c r="F139">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
       <c r="A140" t="s">
         <v>142</v>
       </c>
@@ -3980,8 +4834,14 @@
       <c r="D140">
         <v>78402.7</v>
       </c>
-    </row>
-    <row r="141" spans="1:4">
+      <c r="E140">
+        <v>207</v>
+      </c>
+      <c r="F140">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
       <c r="A141" t="s">
         <v>143</v>
       </c>
@@ -3994,8 +4854,14 @@
       <c r="D141">
         <v>78911.5</v>
       </c>
-    </row>
-    <row r="142" spans="1:4">
+      <c r="E141">
+        <v>97</v>
+      </c>
+      <c r="F141">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
       <c r="A142" t="s">
         <v>144</v>
       </c>
@@ -4008,8 +4874,14 @@
       <c r="D142">
         <v>73672.899999999994</v>
       </c>
-    </row>
-    <row r="143" spans="1:4">
+      <c r="E142">
+        <v>128</v>
+      </c>
+      <c r="F142">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
       <c r="A143" t="s">
         <v>145</v>
       </c>
@@ -4022,8 +4894,14 @@
       <c r="D143">
         <v>72045</v>
       </c>
-    </row>
-    <row r="144" spans="1:4">
+      <c r="E143">
+        <v>126</v>
+      </c>
+      <c r="F143">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
       <c r="A144" t="s">
         <v>146</v>
       </c>
@@ -4036,8 +4914,14 @@
       <c r="D144">
         <v>80231.7</v>
       </c>
-    </row>
-    <row r="145" spans="1:4">
+      <c r="E144">
+        <v>125</v>
+      </c>
+      <c r="F144">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
       <c r="A145" t="s">
         <v>147</v>
       </c>
@@ -4050,8 +4934,14 @@
       <c r="D145">
         <v>76237</v>
       </c>
-    </row>
-    <row r="146" spans="1:4">
+      <c r="E145">
+        <v>106</v>
+      </c>
+      <c r="F145">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
       <c r="A146" t="s">
         <v>148</v>
       </c>
@@ -4064,8 +4954,14 @@
       <c r="D146">
         <v>72335.100000000006</v>
       </c>
-    </row>
-    <row r="147" spans="1:4">
+      <c r="E146">
+        <v>70</v>
+      </c>
+      <c r="F146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
       <c r="A147" t="s">
         <v>149</v>
       </c>
@@ -4078,8 +4974,14 @@
       <c r="D147">
         <v>73847.100000000006</v>
       </c>
-    </row>
-    <row r="148" spans="1:4">
+      <c r="E147">
+        <v>257</v>
+      </c>
+      <c r="F147">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
       <c r="A148" t="s">
         <v>150</v>
       </c>
@@ -4092,8 +4994,14 @@
       <c r="D148">
         <v>81593.8</v>
       </c>
-    </row>
-    <row r="149" spans="1:4">
+      <c r="E148">
+        <v>141</v>
+      </c>
+      <c r="F148">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
       <c r="A149" t="s">
         <v>151</v>
       </c>
@@ -4106,8 +5014,14 @@
       <c r="D149">
         <v>72499.5</v>
       </c>
-    </row>
-    <row r="150" spans="1:4">
+      <c r="E149">
+        <v>57</v>
+      </c>
+      <c r="F149">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
       <c r="A150" t="s">
         <v>152</v>
       </c>
@@ -4120,8 +5034,14 @@
       <c r="D150">
         <v>79450.5</v>
       </c>
-    </row>
-    <row r="151" spans="1:4">
+      <c r="E150">
+        <v>59</v>
+      </c>
+      <c r="F150">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
       <c r="A151" t="s">
         <v>153</v>
       </c>
@@ -4134,8 +5054,14 @@
       <c r="D151">
         <v>78353.399999999994</v>
       </c>
-    </row>
-    <row r="152" spans="1:4">
+      <c r="E151">
+        <v>304</v>
+      </c>
+      <c r="F151">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
       <c r="A152" t="s">
         <v>154</v>
       </c>
@@ -4148,8 +5074,14 @@
       <c r="D152">
         <v>55966.6</v>
       </c>
-    </row>
-    <row r="153" spans="1:4">
+      <c r="E152">
+        <v>47</v>
+      </c>
+      <c r="F152">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
       <c r="A153" t="s">
         <v>155</v>
       </c>
@@ -4162,8 +5094,14 @@
       <c r="D153">
         <v>73961.7</v>
       </c>
-    </row>
-    <row r="154" spans="1:4">
+      <c r="E153">
+        <v>172</v>
+      </c>
+      <c r="F153">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
       <c r="A154" t="s">
         <v>156</v>
       </c>
@@ -4176,8 +5114,14 @@
       <c r="D154">
         <v>71336.7</v>
       </c>
-    </row>
-    <row r="155" spans="1:4">
+      <c r="E154">
+        <v>139</v>
+      </c>
+      <c r="F154">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
       <c r="A155" t="s">
         <v>157</v>
       </c>
@@ -4190,8 +5134,14 @@
       <c r="D155">
         <v>70040.600000000006</v>
       </c>
-    </row>
-    <row r="156" spans="1:4">
+      <c r="E155">
+        <v>52</v>
+      </c>
+      <c r="F155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
       <c r="A156" t="s">
         <v>158</v>
       </c>
@@ -4204,8 +5154,14 @@
       <c r="D156">
         <v>71751.5</v>
       </c>
-    </row>
-    <row r="157" spans="1:4">
+      <c r="E156">
+        <v>103</v>
+      </c>
+      <c r="F156">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
       <c r="A157" t="s">
         <v>159</v>
       </c>
@@ -4218,8 +5174,14 @@
       <c r="D157">
         <v>75423.199999999997</v>
       </c>
-    </row>
-    <row r="158" spans="1:4">
+      <c r="E157">
+        <v>72</v>
+      </c>
+      <c r="F157">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
       <c r="A158" t="s">
         <v>160</v>
       </c>
@@ -4232,8 +5194,14 @@
       <c r="D158">
         <v>77791.399999999994</v>
       </c>
-    </row>
-    <row r="159" spans="1:4">
+      <c r="E158">
+        <v>164</v>
+      </c>
+      <c r="F158">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -4246,8 +5214,14 @@
       <c r="D159">
         <v>70994.2</v>
       </c>
-    </row>
-    <row r="160" spans="1:4">
+      <c r="E159">
+        <v>94</v>
+      </c>
+      <c r="F159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
       <c r="A160" t="s">
         <v>162</v>
       </c>
@@ -4260,8 +5234,14 @@
       <c r="D160">
         <v>57447.7</v>
       </c>
-    </row>
-    <row r="161" spans="1:4">
+      <c r="E160">
+        <v>71</v>
+      </c>
+      <c r="F160">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
       <c r="A161" t="s">
         <v>163</v>
       </c>
@@ -4274,8 +5254,14 @@
       <c r="D161">
         <v>64631.7</v>
       </c>
-    </row>
-    <row r="162" spans="1:4">
+      <c r="E161">
+        <v>151</v>
+      </c>
+      <c r="F161">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
       <c r="A162" t="s">
         <v>164</v>
       </c>
@@ -4288,8 +5274,14 @@
       <c r="D162">
         <v>77165.3</v>
       </c>
-    </row>
-    <row r="163" spans="1:4">
+      <c r="E162">
+        <v>185</v>
+      </c>
+      <c r="F162">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
       <c r="A163" t="s">
         <v>165</v>
       </c>
@@ -4302,8 +5294,14 @@
       <c r="D163">
         <v>75850.8</v>
       </c>
-    </row>
-    <row r="164" spans="1:4">
+      <c r="E163">
+        <v>88</v>
+      </c>
+      <c r="F163">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
       <c r="A164" t="s">
         <v>166</v>
       </c>
@@ -4316,8 +5314,14 @@
       <c r="D164">
         <v>73418.2</v>
       </c>
-    </row>
-    <row r="165" spans="1:4">
+      <c r="E164">
+        <v>185</v>
+      </c>
+      <c r="F164">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
       <c r="A165" t="s">
         <v>167</v>
       </c>
@@ -4330,8 +5334,14 @@
       <c r="D165">
         <v>71651.3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4">
+      <c r="E165">
+        <v>191</v>
+      </c>
+      <c r="F165">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
       <c r="A166" t="s">
         <v>168</v>
       </c>
@@ -4344,8 +5354,14 @@
       <c r="D166">
         <v>75472.399999999994</v>
       </c>
-    </row>
-    <row r="167" spans="1:4">
+      <c r="E166">
+        <v>290</v>
+      </c>
+      <c r="F166">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
       <c r="A167" t="s">
         <v>169</v>
       </c>
@@ -4358,8 +5374,14 @@
       <c r="D167">
         <v>76479.199999999997</v>
       </c>
-    </row>
-    <row r="168" spans="1:4">
+      <c r="E167">
+        <v>79</v>
+      </c>
+      <c r="F167">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
       <c r="A168" t="s">
         <v>170</v>
       </c>
@@ -4372,8 +5394,14 @@
       <c r="D168">
         <v>76399.5</v>
       </c>
-    </row>
-    <row r="169" spans="1:4">
+      <c r="E168">
+        <v>153</v>
+      </c>
+      <c r="F168">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
       <c r="A169" t="s">
         <v>171</v>
       </c>
@@ -4386,8 +5414,14 @@
       <c r="D169">
         <v>71749.100000000006</v>
       </c>
-    </row>
-    <row r="170" spans="1:4">
+      <c r="E169">
+        <v>222</v>
+      </c>
+      <c r="F169">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
       <c r="A170" t="s">
         <v>172</v>
       </c>
@@ -4400,8 +5434,14 @@
       <c r="D170">
         <v>71192.2</v>
       </c>
-    </row>
-    <row r="171" spans="1:4">
+      <c r="E170">
+        <v>56</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
       <c r="A171" t="s">
         <v>173</v>
       </c>
@@ -4414,8 +5454,14 @@
       <c r="D171">
         <v>78237.5</v>
       </c>
-    </row>
-    <row r="172" spans="1:4">
+      <c r="E171">
+        <v>0</v>
+      </c>
+      <c r="F171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
       <c r="A172" t="s">
         <v>174</v>
       </c>
@@ -4428,8 +5474,14 @@
       <c r="D172">
         <v>72447</v>
       </c>
-    </row>
-    <row r="173" spans="1:4">
+      <c r="E172">
+        <v>152</v>
+      </c>
+      <c r="F172">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
       <c r="A173" t="s">
         <v>175</v>
       </c>
@@ -4442,8 +5494,14 @@
       <c r="D173">
         <v>78402.899999999994</v>
       </c>
-    </row>
-    <row r="174" spans="1:4">
+      <c r="E173">
+        <v>93</v>
+      </c>
+      <c r="F173">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
       <c r="A174" t="s">
         <v>176</v>
       </c>
@@ -4456,8 +5514,14 @@
       <c r="D174">
         <v>64734.400000000001</v>
       </c>
-    </row>
-    <row r="175" spans="1:4">
+      <c r="E174">
+        <v>83</v>
+      </c>
+      <c r="F174">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
       <c r="A175" t="s">
         <v>177</v>
       </c>
@@ -4470,8 +5534,14 @@
       <c r="D175">
         <v>77412.399999999994</v>
       </c>
-    </row>
-    <row r="176" spans="1:4">
+      <c r="E175">
+        <v>383</v>
+      </c>
+      <c r="F175">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
       <c r="A176" t="s">
         <v>178</v>
       </c>
@@ -4484,8 +5554,14 @@
       <c r="D176">
         <v>68129.8</v>
       </c>
-    </row>
-    <row r="177" spans="1:4">
+      <c r="E176">
+        <v>53</v>
+      </c>
+      <c r="F176">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
       <c r="A177" t="s">
         <v>179</v>
       </c>
@@ -4498,8 +5574,14 @@
       <c r="D177">
         <v>74550.100000000006</v>
       </c>
-    </row>
-    <row r="178" spans="1:4">
+      <c r="E177">
+        <v>125</v>
+      </c>
+      <c r="F177">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
       <c r="A178" t="s">
         <v>180</v>
       </c>
@@ -4512,8 +5594,14 @@
       <c r="D178">
         <v>72779.199999999997</v>
       </c>
-    </row>
-    <row r="179" spans="1:4">
+      <c r="E178">
+        <v>107</v>
+      </c>
+      <c r="F178">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
       <c r="A179" t="s">
         <v>181</v>
       </c>
@@ -4526,8 +5614,14 @@
       <c r="D179">
         <v>85086.5</v>
       </c>
-    </row>
-    <row r="180" spans="1:4">
+      <c r="E179">
+        <v>0</v>
+      </c>
+      <c r="F179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6">
       <c r="A180" t="s">
         <v>182</v>
       </c>
@@ -4540,8 +5634,14 @@
       <c r="D180">
         <v>75754.2</v>
       </c>
-    </row>
-    <row r="181" spans="1:4">
+      <c r="E180">
+        <v>247</v>
+      </c>
+      <c r="F180">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6">
       <c r="A181" t="s">
         <v>183</v>
       </c>
@@ -4554,8 +5654,14 @@
       <c r="D181">
         <v>64982.8</v>
       </c>
-    </row>
-    <row r="182" spans="1:4">
+      <c r="E181">
+        <v>27</v>
+      </c>
+      <c r="F181">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
       <c r="A182" t="s">
         <v>184</v>
       </c>
@@ -4568,8 +5674,14 @@
       <c r="D182">
         <v>79800.800000000003</v>
       </c>
-    </row>
-    <row r="183" spans="1:4">
+      <c r="E182">
+        <v>164</v>
+      </c>
+      <c r="F182">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
       <c r="A183" t="s">
         <v>185</v>
       </c>
@@ -4582,8 +5694,14 @@
       <c r="D183">
         <v>75653.8</v>
       </c>
-    </row>
-    <row r="184" spans="1:4">
+      <c r="E183">
+        <v>329</v>
+      </c>
+      <c r="F183">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
       <c r="A184" t="s">
         <v>186</v>
       </c>
@@ -4596,8 +5714,14 @@
       <c r="D184">
         <v>75590.100000000006</v>
       </c>
-    </row>
-    <row r="185" spans="1:4">
+      <c r="E184">
+        <v>83</v>
+      </c>
+      <c r="F184">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
       <c r="A185" t="s">
         <v>187</v>
       </c>
@@ -4610,8 +5734,14 @@
       <c r="D185">
         <v>84772.7</v>
       </c>
-    </row>
-    <row r="186" spans="1:4">
+      <c r="E185">
+        <v>109</v>
+      </c>
+      <c r="F185">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
       <c r="A186" t="s">
         <v>188</v>
       </c>
@@ -4624,8 +5754,14 @@
       <c r="D186">
         <v>77900.7</v>
       </c>
-    </row>
-    <row r="187" spans="1:4">
+      <c r="E186">
+        <v>193</v>
+      </c>
+      <c r="F186">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
       <c r="A187" t="s">
         <v>189</v>
       </c>
@@ -4638,8 +5774,14 @@
       <c r="D187">
         <v>80363.100000000006</v>
       </c>
-    </row>
-    <row r="188" spans="1:4">
+      <c r="E187">
+        <v>479</v>
+      </c>
+      <c r="F187">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
       <c r="A188" t="s">
         <v>190</v>
       </c>
@@ -4652,8 +5794,14 @@
       <c r="D188">
         <v>79409.5</v>
       </c>
-    </row>
-    <row r="189" spans="1:4">
+      <c r="E188">
+        <v>275</v>
+      </c>
+      <c r="F188">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
       <c r="A189" t="s">
         <v>191</v>
       </c>
@@ -4666,8 +5814,14 @@
       <c r="D189">
         <v>64026.400000000001</v>
       </c>
-    </row>
-    <row r="190" spans="1:4">
+      <c r="E189">
+        <v>62</v>
+      </c>
+      <c r="F189">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6">
       <c r="A190" t="s">
         <v>192</v>
       </c>
@@ -4680,8 +5834,14 @@
       <c r="D190">
         <v>73981.5</v>
       </c>
-    </row>
-    <row r="191" spans="1:4">
+      <c r="E190">
+        <v>173</v>
+      </c>
+      <c r="F190">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6">
       <c r="A191" t="s">
         <v>193</v>
       </c>
@@ -4694,8 +5854,14 @@
       <c r="D191">
         <v>80168.600000000006</v>
       </c>
-    </row>
-    <row r="192" spans="1:4">
+      <c r="E191">
+        <v>148</v>
+      </c>
+      <c r="F191">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
       <c r="A192" t="s">
         <v>194</v>
       </c>
@@ -4708,8 +5874,14 @@
       <c r="D192">
         <v>73575.100000000006</v>
       </c>
-    </row>
-    <row r="193" spans="1:4">
+      <c r="E192">
+        <v>68</v>
+      </c>
+      <c r="F192">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
       <c r="A193" t="s">
         <v>195</v>
       </c>
@@ -4722,8 +5894,14 @@
       <c r="D193">
         <v>74088.899999999994</v>
       </c>
-    </row>
-    <row r="194" spans="1:4">
+      <c r="E193">
+        <v>126</v>
+      </c>
+      <c r="F193">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6">
       <c r="A194" t="s">
         <v>196</v>
       </c>
@@ -4736,8 +5914,14 @@
       <c r="D194">
         <v>73300.600000000006</v>
       </c>
-    </row>
-    <row r="195" spans="1:4">
+      <c r="E194">
+        <v>195</v>
+      </c>
+      <c r="F194">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6">
       <c r="A195" t="s">
         <v>197</v>
       </c>
@@ -4750,8 +5934,14 @@
       <c r="D195">
         <v>73260.7</v>
       </c>
-    </row>
-    <row r="196" spans="1:4">
+      <c r="E195">
+        <v>231</v>
+      </c>
+      <c r="F195">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
       <c r="A196" t="s">
         <v>198</v>
       </c>
@@ -4764,8 +5954,14 @@
       <c r="D196">
         <v>71488</v>
       </c>
-    </row>
-    <row r="197" spans="1:4">
+      <c r="E196">
+        <v>285</v>
+      </c>
+      <c r="F196">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
       <c r="A197" t="s">
         <v>199</v>
       </c>
@@ -4778,8 +5974,14 @@
       <c r="D197">
         <v>69570.899999999994</v>
       </c>
-    </row>
-    <row r="198" spans="1:4">
+      <c r="E197">
+        <v>453</v>
+      </c>
+      <c r="F197">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
       <c r="A198" t="s">
         <v>200</v>
       </c>
@@ -4792,8 +5994,14 @@
       <c r="D198">
         <v>79270.399999999994</v>
       </c>
-    </row>
-    <row r="199" spans="1:4">
+      <c r="E198">
+        <v>186</v>
+      </c>
+      <c r="F198">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
       <c r="A199" t="s">
         <v>201</v>
       </c>
@@ -4806,8 +6014,14 @@
       <c r="D199">
         <v>67508.3</v>
       </c>
-    </row>
-    <row r="200" spans="1:4">
+      <c r="E199">
+        <v>104</v>
+      </c>
+      <c r="F199">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
       <c r="A200" t="s">
         <v>202</v>
       </c>
@@ -4820,8 +6034,14 @@
       <c r="D200">
         <v>76149.899999999994</v>
       </c>
-    </row>
-    <row r="201" spans="1:4">
+      <c r="E200">
+        <v>50</v>
+      </c>
+      <c r="F200">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
       <c r="A201" t="s">
         <v>203</v>
       </c>
@@ -4834,8 +6054,14 @@
       <c r="D201">
         <v>80070.3</v>
       </c>
-    </row>
-    <row r="202" spans="1:4">
+      <c r="E201">
+        <v>233</v>
+      </c>
+      <c r="F201">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
       <c r="A202" t="s">
         <v>204</v>
       </c>
@@ -4848,8 +6074,14 @@
       <c r="D202">
         <v>70681.2</v>
       </c>
-    </row>
-    <row r="203" spans="1:4">
+      <c r="E202">
+        <v>49</v>
+      </c>
+      <c r="F202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
       <c r="A203" t="s">
         <v>205</v>
       </c>
@@ -4862,8 +6094,14 @@
       <c r="D203">
         <v>87430.3</v>
       </c>
-    </row>
-    <row r="204" spans="1:4">
+      <c r="E203">
+        <v>87</v>
+      </c>
+      <c r="F203">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
       <c r="A204" t="s">
         <v>206</v>
       </c>
@@ -4876,8 +6114,14 @@
       <c r="D204">
         <v>73515.100000000006</v>
       </c>
-    </row>
-    <row r="205" spans="1:4">
+      <c r="E204">
+        <v>372</v>
+      </c>
+      <c r="F204">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
       <c r="A205" t="s">
         <v>207</v>
       </c>
@@ -4890,8 +6134,14 @@
       <c r="D205">
         <v>71965.7</v>
       </c>
-    </row>
-    <row r="206" spans="1:4">
+      <c r="E205">
+        <v>121</v>
+      </c>
+      <c r="F205">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
       <c r="A206" t="s">
         <v>208</v>
       </c>
@@ -4904,8 +6154,14 @@
       <c r="D206">
         <v>72669.2</v>
       </c>
-    </row>
-    <row r="207" spans="1:4">
+      <c r="E206">
+        <v>103</v>
+      </c>
+      <c r="F206">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
       <c r="A207" t="s">
         <v>209</v>
       </c>
@@ -4918,8 +6174,14 @@
       <c r="D207">
         <v>77446</v>
       </c>
-    </row>
-    <row r="208" spans="1:4">
+      <c r="E207">
+        <v>272</v>
+      </c>
+      <c r="F207">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
       <c r="A208" t="s">
         <v>210</v>
       </c>
@@ -4932,8 +6194,14 @@
       <c r="D208">
         <v>75510.7</v>
       </c>
-    </row>
-    <row r="209" spans="1:4">
+      <c r="E208">
+        <v>165</v>
+      </c>
+      <c r="F208">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6">
       <c r="A209" t="s">
         <v>211</v>
       </c>
@@ -4946,8 +6214,14 @@
       <c r="D209">
         <v>76003.899999999994</v>
       </c>
-    </row>
-    <row r="210" spans="1:4">
+      <c r="E209">
+        <v>54</v>
+      </c>
+      <c r="F209">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
       <c r="A210" t="s">
         <v>212</v>
       </c>
@@ -4960,8 +6234,14 @@
       <c r="D210">
         <v>77231.8</v>
       </c>
-    </row>
-    <row r="211" spans="1:4">
+      <c r="E210">
+        <v>176</v>
+      </c>
+      <c r="F210">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6">
       <c r="A211" t="s">
         <v>213</v>
       </c>
@@ -4974,8 +6254,14 @@
       <c r="D211">
         <v>74959.100000000006</v>
       </c>
-    </row>
-    <row r="212" spans="1:4">
+      <c r="E211">
+        <v>422</v>
+      </c>
+      <c r="F211">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6">
       <c r="A212" t="s">
         <v>214</v>
       </c>
@@ -4988,8 +6274,14 @@
       <c r="D212">
         <v>74466.5</v>
       </c>
-    </row>
-    <row r="213" spans="1:4">
+      <c r="E212">
+        <v>100</v>
+      </c>
+      <c r="F212">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6">
       <c r="A213" t="s">
         <v>215</v>
       </c>
@@ -5002,8 +6294,14 @@
       <c r="D213">
         <v>64746.6</v>
       </c>
-    </row>
-    <row r="214" spans="1:4">
+      <c r="E213">
+        <v>52</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6">
       <c r="A214" t="s">
         <v>216</v>
       </c>
@@ -5016,8 +6314,14 @@
       <c r="D214">
         <v>66708</v>
       </c>
-    </row>
-    <row r="215" spans="1:4">
+      <c r="E214">
+        <v>111</v>
+      </c>
+      <c r="F214">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6">
       <c r="A215" t="s">
         <v>217</v>
       </c>
@@ -5030,8 +6334,14 @@
       <c r="D215">
         <v>75732</v>
       </c>
-    </row>
-    <row r="216" spans="1:4">
+      <c r="E215">
+        <v>236</v>
+      </c>
+      <c r="F215">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6">
       <c r="A216" t="s">
         <v>218</v>
       </c>
@@ -5044,8 +6354,14 @@
       <c r="D216">
         <v>69304.5</v>
       </c>
-    </row>
-    <row r="217" spans="1:4">
+      <c r="E216">
+        <v>176</v>
+      </c>
+      <c r="F216">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6">
       <c r="A217" t="s">
         <v>219</v>
       </c>
@@ -5058,8 +6374,14 @@
       <c r="D217">
         <v>84626.3</v>
       </c>
-    </row>
-    <row r="218" spans="1:4">
+      <c r="E217">
+        <v>285</v>
+      </c>
+      <c r="F217">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6">
       <c r="A218" t="s">
         <v>220</v>
       </c>
@@ -5072,8 +6394,14 @@
       <c r="D218">
         <v>73202.399999999994</v>
       </c>
-    </row>
-    <row r="219" spans="1:4">
+      <c r="E218">
+        <v>430</v>
+      </c>
+      <c r="F218">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6">
       <c r="A219" t="s">
         <v>221</v>
       </c>
@@ -5086,8 +6414,14 @@
       <c r="D219">
         <v>72897.399999999994</v>
       </c>
-    </row>
-    <row r="220" spans="1:4">
+      <c r="E219">
+        <v>139</v>
+      </c>
+      <c r="F219">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6">
       <c r="A220" t="s">
         <v>222</v>
       </c>
@@ -5100,8 +6434,14 @@
       <c r="D220">
         <v>69265.100000000006</v>
       </c>
-    </row>
-    <row r="221" spans="1:4">
+      <c r="E220">
+        <v>140</v>
+      </c>
+      <c r="F220">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6">
       <c r="A221" t="s">
         <v>223</v>
       </c>
@@ -5114,8 +6454,14 @@
       <c r="D221">
         <v>76002.3</v>
       </c>
-    </row>
-    <row r="222" spans="1:4">
+      <c r="E221">
+        <v>158</v>
+      </c>
+      <c r="F221">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6">
       <c r="A222" t="s">
         <v>224</v>
       </c>
@@ -5128,8 +6474,14 @@
       <c r="D222">
         <v>75579.899999999994</v>
       </c>
-    </row>
-    <row r="223" spans="1:4">
+      <c r="E222">
+        <v>251</v>
+      </c>
+      <c r="F222">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6">
       <c r="A223" t="s">
         <v>225</v>
       </c>
@@ -5142,8 +6494,14 @@
       <c r="D223">
         <v>67226.2</v>
       </c>
-    </row>
-    <row r="224" spans="1:4">
+      <c r="E223">
+        <v>203</v>
+      </c>
+      <c r="F223">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6">
       <c r="A224" t="s">
         <v>226</v>
       </c>
@@ -5156,8 +6514,14 @@
       <c r="D224">
         <v>77291</v>
       </c>
-    </row>
-    <row r="225" spans="1:4">
+      <c r="E224">
+        <v>234</v>
+      </c>
+      <c r="F224">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6">
       <c r="A225" t="s">
         <v>227</v>
       </c>
@@ -5170,8 +6534,14 @@
       <c r="D225">
         <v>71563.8</v>
       </c>
-    </row>
-    <row r="226" spans="1:4">
+      <c r="E225">
+        <v>27</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6">
       <c r="A226" t="s">
         <v>228</v>
       </c>
@@ -5184,8 +6554,14 @@
       <c r="D226">
         <v>72730.3</v>
       </c>
-    </row>
-    <row r="227" spans="1:4">
+      <c r="E226">
+        <v>128</v>
+      </c>
+      <c r="F226">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6">
       <c r="A227" t="s">
         <v>229</v>
       </c>
@@ -5198,8 +6574,14 @@
       <c r="D227">
         <v>74054.899999999994</v>
       </c>
-    </row>
-    <row r="228" spans="1:4">
+      <c r="E227">
+        <v>60</v>
+      </c>
+      <c r="F227">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6">
       <c r="A228" t="s">
         <v>230</v>
       </c>
@@ -5212,8 +6594,14 @@
       <c r="D228">
         <v>74549.3</v>
       </c>
-    </row>
-    <row r="229" spans="1:4">
+      <c r="E228">
+        <v>286</v>
+      </c>
+      <c r="F228">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6">
       <c r="A229" t="s">
         <v>231</v>
       </c>
@@ -5226,8 +6614,14 @@
       <c r="D229">
         <v>76735.100000000006</v>
       </c>
-    </row>
-    <row r="230" spans="1:4">
+      <c r="E229">
+        <v>339</v>
+      </c>
+      <c r="F229">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6">
       <c r="A230" t="s">
         <v>232</v>
       </c>
@@ -5240,8 +6634,14 @@
       <c r="D230">
         <v>73730.100000000006</v>
       </c>
-    </row>
-    <row r="231" spans="1:4">
+      <c r="E230">
+        <v>115</v>
+      </c>
+      <c r="F230">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6">
       <c r="A231" t="s">
         <v>233</v>
       </c>
@@ -5254,8 +6654,14 @@
       <c r="D231">
         <v>83127.600000000006</v>
       </c>
-    </row>
-    <row r="232" spans="1:4">
+      <c r="E231">
+        <v>175</v>
+      </c>
+      <c r="F231">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6">
       <c r="A232" t="s">
         <v>234</v>
       </c>
@@ -5268,8 +6674,14 @@
       <c r="D232">
         <v>77566</v>
       </c>
-    </row>
-    <row r="233" spans="1:4">
+      <c r="E232">
+        <v>116</v>
+      </c>
+      <c r="F232">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6">
       <c r="A233" t="s">
         <v>235</v>
       </c>
@@ -5282,8 +6694,14 @@
       <c r="D233">
         <v>73495.199999999997</v>
       </c>
-    </row>
-    <row r="234" spans="1:4">
+      <c r="E233">
+        <v>124</v>
+      </c>
+      <c r="F233">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6">
       <c r="A234" t="s">
         <v>236</v>
       </c>
@@ -5296,8 +6714,14 @@
       <c r="D234">
         <v>69465</v>
       </c>
-    </row>
-    <row r="235" spans="1:4">
+      <c r="E234">
+        <v>92</v>
+      </c>
+      <c r="F234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6">
       <c r="A235" t="s">
         <v>237</v>
       </c>
@@ -5310,8 +6734,14 @@
       <c r="D235">
         <v>74036.899999999994</v>
       </c>
-    </row>
-    <row r="236" spans="1:4">
+      <c r="E235">
+        <v>108</v>
+      </c>
+      <c r="F235">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6">
       <c r="A236" t="s">
         <v>238</v>
       </c>
@@ -5324,8 +6754,14 @@
       <c r="D236">
         <v>76037.600000000006</v>
       </c>
-    </row>
-    <row r="237" spans="1:4">
+      <c r="E236">
+        <v>143</v>
+      </c>
+      <c r="F236">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6">
       <c r="A237" t="s">
         <v>239</v>
       </c>
@@ -5338,8 +6774,14 @@
       <c r="D237">
         <v>76607</v>
       </c>
-    </row>
-    <row r="238" spans="1:4">
+      <c r="E237">
+        <v>234</v>
+      </c>
+      <c r="F237">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6">
       <c r="A238" t="s">
         <v>240</v>
       </c>
@@ -5352,8 +6794,14 @@
       <c r="D238">
         <v>86298.8</v>
       </c>
-    </row>
-    <row r="239" spans="1:4">
+      <c r="E238">
+        <v>229</v>
+      </c>
+      <c r="F238">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6">
       <c r="A239" t="s">
         <v>241</v>
       </c>
@@ -5366,8 +6814,14 @@
       <c r="D239">
         <v>78579</v>
       </c>
-    </row>
-    <row r="240" spans="1:4">
+      <c r="E239">
+        <v>122</v>
+      </c>
+      <c r="F239">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6">
       <c r="A240" t="s">
         <v>242</v>
       </c>
@@ -5380,8 +6834,14 @@
       <c r="D240">
         <v>76474.8</v>
       </c>
-    </row>
-    <row r="241" spans="1:4">
+      <c r="E240">
+        <v>263</v>
+      </c>
+      <c r="F240">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6">
       <c r="A241" t="s">
         <v>243</v>
       </c>
@@ -5394,8 +6854,14 @@
       <c r="D241">
         <v>66668.2</v>
       </c>
-    </row>
-    <row r="242" spans="1:4">
+      <c r="E241">
+        <v>177</v>
+      </c>
+      <c r="F241">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6">
       <c r="A242" t="s">
         <v>244</v>
       </c>
@@ -5408,8 +6874,14 @@
       <c r="D242">
         <v>77235.199999999997</v>
       </c>
-    </row>
-    <row r="243" spans="1:4">
+      <c r="E242">
+        <v>247</v>
+      </c>
+      <c r="F242">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6">
       <c r="A243" t="s">
         <v>245</v>
       </c>
@@ -5422,8 +6894,14 @@
       <c r="D243">
         <v>74477.600000000006</v>
       </c>
-    </row>
-    <row r="244" spans="1:4">
+      <c r="E243">
+        <v>171</v>
+      </c>
+      <c r="F243">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6">
       <c r="A244" t="s">
         <v>246</v>
       </c>
@@ -5436,8 +6914,14 @@
       <c r="D244">
         <v>90769.7</v>
       </c>
-    </row>
-    <row r="245" spans="1:4">
+      <c r="E244">
+        <v>133</v>
+      </c>
+      <c r="F244">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6">
       <c r="A245" t="s">
         <v>247</v>
       </c>
@@ -5450,8 +6934,14 @@
       <c r="D245">
         <v>78204</v>
       </c>
-    </row>
-    <row r="246" spans="1:4">
+      <c r="E245">
+        <v>277</v>
+      </c>
+      <c r="F245">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6">
       <c r="A246" t="s">
         <v>248</v>
       </c>
@@ -5464,8 +6954,14 @@
       <c r="D246">
         <v>79233.100000000006</v>
       </c>
-    </row>
-    <row r="247" spans="1:4">
+      <c r="E246">
+        <v>189</v>
+      </c>
+      <c r="F246">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6">
       <c r="A247" t="s">
         <v>249</v>
       </c>
@@ -5478,8 +6974,14 @@
       <c r="D247">
         <v>77068.800000000003</v>
       </c>
-    </row>
-    <row r="248" spans="1:4">
+      <c r="E247">
+        <v>338</v>
+      </c>
+      <c r="F247">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6">
       <c r="A248" t="s">
         <v>250</v>
       </c>
@@ -5492,8 +6994,14 @@
       <c r="D248">
         <v>72772.7</v>
       </c>
-    </row>
-    <row r="249" spans="1:4">
+      <c r="E248">
+        <v>255</v>
+      </c>
+      <c r="F248">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6">
       <c r="A249" t="s">
         <v>251</v>
       </c>
@@ -5506,8 +7014,14 @@
       <c r="D249">
         <v>82217.3</v>
       </c>
-    </row>
-    <row r="250" spans="1:4">
+      <c r="E249">
+        <v>173</v>
+      </c>
+      <c r="F249">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6">
       <c r="A250" t="s">
         <v>252</v>
       </c>
@@ -5520,8 +7034,14 @@
       <c r="D250">
         <v>73183.199999999997</v>
       </c>
-    </row>
-    <row r="251" spans="1:4">
+      <c r="E250">
+        <v>192</v>
+      </c>
+      <c r="F250">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6">
       <c r="A251" t="s">
         <v>253</v>
       </c>
@@ -5534,8 +7054,14 @@
       <c r="D251">
         <v>69130.5</v>
       </c>
-    </row>
-    <row r="252" spans="1:4">
+      <c r="E251">
+        <v>130</v>
+      </c>
+      <c r="F251">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6">
       <c r="A252" t="s">
         <v>254</v>
       </c>
@@ -5548,8 +7074,14 @@
       <c r="D252">
         <v>79237.600000000006</v>
       </c>
-    </row>
-    <row r="253" spans="1:4">
+      <c r="E252">
+        <v>95</v>
+      </c>
+      <c r="F252">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6">
       <c r="A253" t="s">
         <v>255</v>
       </c>
@@ -5562,8 +7094,14 @@
       <c r="D253">
         <v>73803.199999999997</v>
       </c>
-    </row>
-    <row r="254" spans="1:4">
+      <c r="E253">
+        <v>223</v>
+      </c>
+      <c r="F253">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6">
       <c r="A254" t="s">
         <v>256</v>
       </c>
@@ -5576,8 +7114,14 @@
       <c r="D254">
         <v>78149.7</v>
       </c>
-    </row>
-    <row r="255" spans="1:4">
+      <c r="E254">
+        <v>239</v>
+      </c>
+      <c r="F254">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6">
       <c r="A255" t="s">
         <v>257</v>
       </c>
@@ -5590,8 +7134,14 @@
       <c r="D255">
         <v>76273.2</v>
       </c>
-    </row>
-    <row r="256" spans="1:4">
+      <c r="E255">
+        <v>137</v>
+      </c>
+      <c r="F255">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6">
       <c r="A256" t="s">
         <v>258</v>
       </c>
@@ -5604,8 +7154,14 @@
       <c r="D256">
         <v>70641.3</v>
       </c>
-    </row>
-    <row r="257" spans="1:4">
+      <c r="E256">
+        <v>26</v>
+      </c>
+      <c r="F256">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6">
       <c r="A257" t="s">
         <v>259</v>
       </c>
@@ -5618,8 +7174,14 @@
       <c r="D257">
         <v>77260.100000000006</v>
       </c>
-    </row>
-    <row r="258" spans="1:4">
+      <c r="E257">
+        <v>272</v>
+      </c>
+      <c r="F257">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6">
       <c r="A258" t="s">
         <v>260</v>
       </c>
@@ -5632,8 +7194,14 @@
       <c r="D258">
         <v>69720</v>
       </c>
-    </row>
-    <row r="259" spans="1:4">
+      <c r="E258">
+        <v>106</v>
+      </c>
+      <c r="F258">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6">
       <c r="A259" t="s">
         <v>261</v>
       </c>
@@ -5646,8 +7214,14 @@
       <c r="D259">
         <v>74129.2</v>
       </c>
-    </row>
-    <row r="260" spans="1:4">
+      <c r="E259">
+        <v>138</v>
+      </c>
+      <c r="F259">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6">
       <c r="A260" t="s">
         <v>262</v>
       </c>
@@ -5660,8 +7234,14 @@
       <c r="D260">
         <v>86308.6</v>
       </c>
-    </row>
-    <row r="261" spans="1:4">
+      <c r="E260">
+        <v>57</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6">
       <c r="A261" t="s">
         <v>263</v>
       </c>
@@ -5674,8 +7254,14 @@
       <c r="D261">
         <v>73675.3</v>
       </c>
-    </row>
-    <row r="262" spans="1:4">
+      <c r="E261">
+        <v>153</v>
+      </c>
+      <c r="F261">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6">
       <c r="A262" t="s">
         <v>264</v>
       </c>
@@ -5688,8 +7274,14 @@
       <c r="D262">
         <v>73715.399999999994</v>
       </c>
-    </row>
-    <row r="263" spans="1:4">
+      <c r="E262">
+        <v>252</v>
+      </c>
+      <c r="F262">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6">
       <c r="A263" t="s">
         <v>265</v>
       </c>
@@ -5702,8 +7294,14 @@
       <c r="D263">
         <v>71480.800000000003</v>
       </c>
-    </row>
-    <row r="264" spans="1:4">
+      <c r="E263">
+        <v>174</v>
+      </c>
+      <c r="F263">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6">
       <c r="A264" t="s">
         <v>266</v>
       </c>
@@ -5716,8 +7314,14 @@
       <c r="D264">
         <v>82972.3</v>
       </c>
-    </row>
-    <row r="265" spans="1:4">
+      <c r="E264">
+        <v>247</v>
+      </c>
+      <c r="F264">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6">
       <c r="A265" t="s">
         <v>267</v>
       </c>
@@ -5730,8 +7334,14 @@
       <c r="D265">
         <v>75031.7</v>
       </c>
-    </row>
-    <row r="266" spans="1:4">
+      <c r="E265">
+        <v>132</v>
+      </c>
+      <c r="F265">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6">
       <c r="A266" t="s">
         <v>268</v>
       </c>
@@ -5744,8 +7354,14 @@
       <c r="D266">
         <v>72136.800000000003</v>
       </c>
-    </row>
-    <row r="267" spans="1:4">
+      <c r="E266">
+        <v>167</v>
+      </c>
+      <c r="F266">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6">
       <c r="A267" t="s">
         <v>269</v>
       </c>
@@ -5758,8 +7374,14 @@
       <c r="D267">
         <v>71357.8</v>
       </c>
-    </row>
-    <row r="268" spans="1:4">
+      <c r="E267">
+        <v>407</v>
+      </c>
+      <c r="F267">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6">
       <c r="A268" t="s">
         <v>270</v>
       </c>
@@ -5772,8 +7394,14 @@
       <c r="D268">
         <v>74576.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:4">
+      <c r="E268">
+        <v>198</v>
+      </c>
+      <c r="F268">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6">
       <c r="A269" t="s">
         <v>271</v>
       </c>
@@ -5786,8 +7414,14 @@
       <c r="D269">
         <v>72521.7</v>
       </c>
-    </row>
-    <row r="270" spans="1:4">
+      <c r="E269">
+        <v>249</v>
+      </c>
+      <c r="F269">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6">
       <c r="A270" t="s">
         <v>272</v>
       </c>
@@ -5800,8 +7434,14 @@
       <c r="D270">
         <v>74957.2</v>
       </c>
-    </row>
-    <row r="271" spans="1:4">
+      <c r="E270">
+        <v>183</v>
+      </c>
+      <c r="F270">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6">
       <c r="A271" t="s">
         <v>273</v>
       </c>
@@ -5814,8 +7454,14 @@
       <c r="D271">
         <v>70260.100000000006</v>
       </c>
-    </row>
-    <row r="272" spans="1:4">
+      <c r="E271">
+        <v>225</v>
+      </c>
+      <c r="F271">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6">
       <c r="A272" t="s">
         <v>274</v>
       </c>
@@ -5828,8 +7474,14 @@
       <c r="D272">
         <v>71829.899999999994</v>
       </c>
-    </row>
-    <row r="273" spans="1:4">
+      <c r="E272">
+        <v>220</v>
+      </c>
+      <c r="F272">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6">
       <c r="A273" t="s">
         <v>275</v>
       </c>
@@ -5842,8 +7494,14 @@
       <c r="D273">
         <v>79528.2</v>
       </c>
-    </row>
-    <row r="274" spans="1:4">
+      <c r="E273">
+        <v>117</v>
+      </c>
+      <c r="F273">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6">
       <c r="A274" t="s">
         <v>276</v>
       </c>
@@ -5856,8 +7514,14 @@
       <c r="D274">
         <v>90590.9</v>
       </c>
-    </row>
-    <row r="275" spans="1:4">
+      <c r="E274">
+        <v>205</v>
+      </c>
+      <c r="F274">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6">
       <c r="A275" t="s">
         <v>277</v>
       </c>
@@ -5870,8 +7534,14 @@
       <c r="D275">
         <v>70741.2</v>
       </c>
-    </row>
-    <row r="276" spans="1:4">
+      <c r="E275">
+        <v>175</v>
+      </c>
+      <c r="F275">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6">
       <c r="A276" t="s">
         <v>278</v>
       </c>
@@ -5884,8 +7554,14 @@
       <c r="D276">
         <v>70504.7</v>
       </c>
-    </row>
-    <row r="277" spans="1:4">
+      <c r="E276">
+        <v>81</v>
+      </c>
+      <c r="F276">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6">
       <c r="A277" t="s">
         <v>279</v>
       </c>
@@ -5898,8 +7574,14 @@
       <c r="D277">
         <v>77683.199999999997</v>
       </c>
-    </row>
-    <row r="278" spans="1:4">
+      <c r="E277">
+        <v>523</v>
+      </c>
+      <c r="F277">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6">
       <c r="A278" t="s">
         <v>280</v>
       </c>
@@ -5912,8 +7594,14 @@
       <c r="D278">
         <v>76047</v>
       </c>
-    </row>
-    <row r="279" spans="1:4">
+      <c r="E278">
+        <v>234</v>
+      </c>
+      <c r="F278">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6">
       <c r="A279" t="s">
         <v>281</v>
       </c>
@@ -5926,8 +7614,14 @@
       <c r="D279">
         <v>74824.100000000006</v>
       </c>
-    </row>
-    <row r="280" spans="1:4">
+      <c r="E279">
+        <v>67</v>
+      </c>
+      <c r="F279">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6">
       <c r="A280" t="s">
         <v>282</v>
       </c>
@@ -5940,8 +7634,14 @@
       <c r="D280">
         <v>77218.2</v>
       </c>
-    </row>
-    <row r="281" spans="1:4">
+      <c r="E280">
+        <v>308</v>
+      </c>
+      <c r="F280">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6">
       <c r="A281" t="s">
         <v>283</v>
       </c>
@@ -5954,8 +7654,14 @@
       <c r="D281">
         <v>77383.199999999997</v>
       </c>
-    </row>
-    <row r="282" spans="1:4">
+      <c r="E281">
+        <v>130</v>
+      </c>
+      <c r="F281">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6">
       <c r="A282" t="s">
         <v>284</v>
       </c>
@@ -5968,8 +7674,14 @@
       <c r="D282">
         <v>70071.399999999994</v>
       </c>
-    </row>
-    <row r="283" spans="1:4">
+      <c r="E282">
+        <v>251</v>
+      </c>
+      <c r="F282">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6">
       <c r="A283" t="s">
         <v>285</v>
       </c>
@@ -5982,8 +7694,14 @@
       <c r="D283">
         <v>75623.5</v>
       </c>
-    </row>
-    <row r="284" spans="1:4">
+      <c r="E283">
+        <v>120</v>
+      </c>
+      <c r="F283">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6">
       <c r="A284" t="s">
         <v>286</v>
       </c>
@@ -5996,8 +7714,14 @@
       <c r="D284">
         <v>69980.7</v>
       </c>
-    </row>
-    <row r="285" spans="1:4">
+      <c r="E284">
+        <v>399</v>
+      </c>
+      <c r="F284">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6">
       <c r="A285" t="s">
         <v>287</v>
       </c>
@@ -6010,8 +7734,14 @@
       <c r="D285">
         <v>75565.100000000006</v>
       </c>
-    </row>
-    <row r="286" spans="1:4">
+      <c r="E285">
+        <v>87</v>
+      </c>
+      <c r="F285">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6">
       <c r="A286" t="s">
         <v>288</v>
       </c>
@@ -6024,8 +7754,14 @@
       <c r="D286">
         <v>73602.100000000006</v>
       </c>
-    </row>
-    <row r="287" spans="1:4">
+      <c r="E286">
+        <v>334</v>
+      </c>
+      <c r="F286">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6">
       <c r="A287" t="s">
         <v>289</v>
       </c>
@@ -6038,8 +7774,14 @@
       <c r="D287">
         <v>77371.899999999994</v>
       </c>
-    </row>
-    <row r="288" spans="1:4">
+      <c r="E287">
+        <v>28</v>
+      </c>
+      <c r="F287">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6">
       <c r="A288" t="s">
         <v>290</v>
       </c>
@@ -6052,8 +7794,14 @@
       <c r="D288">
         <v>58523.5</v>
       </c>
-    </row>
-    <row r="289" spans="1:4">
+      <c r="E288">
+        <v>84</v>
+      </c>
+      <c r="F288">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6">
       <c r="A289" t="s">
         <v>291</v>
       </c>
@@ -6066,8 +7814,14 @@
       <c r="D289">
         <v>70589.600000000006</v>
       </c>
-    </row>
-    <row r="290" spans="1:4">
+      <c r="E289">
+        <v>157</v>
+      </c>
+      <c r="F289">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6">
       <c r="A290" t="s">
         <v>292</v>
       </c>
@@ -6080,8 +7834,14 @@
       <c r="D290">
         <v>81964.899999999994</v>
       </c>
-    </row>
-    <row r="291" spans="1:4">
+      <c r="E290">
+        <v>147</v>
+      </c>
+      <c r="F290">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6">
       <c r="A291" t="s">
         <v>293</v>
       </c>
@@ -6094,8 +7854,14 @@
       <c r="D291">
         <v>70040.399999999994</v>
       </c>
-    </row>
-    <row r="292" spans="1:4">
+      <c r="E291">
+        <v>81</v>
+      </c>
+      <c r="F291">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6">
       <c r="A292" t="s">
         <v>294</v>
       </c>
@@ -6108,8 +7874,14 @@
       <c r="D292">
         <v>86944.2</v>
       </c>
-    </row>
-    <row r="293" spans="1:4">
+      <c r="E292">
+        <v>156</v>
+      </c>
+      <c r="F292">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6">
       <c r="A293" t="s">
         <v>295</v>
       </c>
@@ -6122,8 +7894,14 @@
       <c r="D293">
         <v>70230.8</v>
       </c>
-    </row>
-    <row r="294" spans="1:4">
+      <c r="E293">
+        <v>158</v>
+      </c>
+      <c r="F293">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6">
       <c r="A294" t="s">
         <v>296</v>
       </c>
@@ -6136,8 +7914,14 @@
       <c r="D294">
         <v>78291.8</v>
       </c>
-    </row>
-    <row r="295" spans="1:4">
+      <c r="E294">
+        <v>190</v>
+      </c>
+      <c r="F294">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6">
       <c r="A295" t="s">
         <v>297</v>
       </c>
@@ -6150,8 +7934,14 @@
       <c r="D295">
         <v>87888.8</v>
       </c>
-    </row>
-    <row r="296" spans="1:4">
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6">
       <c r="A296" t="s">
         <v>298</v>
       </c>
@@ -6164,8 +7954,14 @@
       <c r="D296">
         <v>75531.600000000006</v>
       </c>
-    </row>
-    <row r="297" spans="1:4">
+      <c r="E296">
+        <v>373</v>
+      </c>
+      <c r="F296">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6">
       <c r="A297" t="s">
         <v>299</v>
       </c>
@@ -6178,8 +7974,14 @@
       <c r="D297">
         <v>87275.3</v>
       </c>
-    </row>
-    <row r="298" spans="1:4">
+      <c r="E297">
+        <v>152</v>
+      </c>
+      <c r="F297">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6">
       <c r="A298" t="s">
         <v>300</v>
       </c>
@@ -6192,8 +7994,14 @@
       <c r="D298">
         <v>80129.7</v>
       </c>
-    </row>
-    <row r="299" spans="1:4">
+      <c r="E298">
+        <v>93</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6">
       <c r="A299" t="s">
         <v>301</v>
       </c>
@@ -6206,8 +8014,14 @@
       <c r="D299">
         <v>77551</v>
       </c>
-    </row>
-    <row r="300" spans="1:4">
+      <c r="E299">
+        <v>54</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6">
       <c r="A300" t="s">
         <v>302</v>
       </c>
@@ -6220,8 +8034,14 @@
       <c r="D300">
         <v>67736.3</v>
       </c>
-    </row>
-    <row r="301" spans="1:4">
+      <c r="E300">
+        <v>128</v>
+      </c>
+      <c r="F300">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6">
       <c r="A301" t="s">
         <v>303</v>
       </c>
@@ -6234,8 +8054,14 @@
       <c r="D301">
         <v>74769.2</v>
       </c>
-    </row>
-    <row r="302" spans="1:4">
+      <c r="E301">
+        <v>211</v>
+      </c>
+      <c r="F301">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6">
       <c r="A302" t="s">
         <v>304</v>
       </c>
@@ -6248,8 +8074,14 @@
       <c r="D302">
         <v>40709.699999999997</v>
       </c>
-    </row>
-    <row r="303" spans="1:4">
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6">
       <c r="A303" t="s">
         <v>305</v>
       </c>
@@ -6262,8 +8094,14 @@
       <c r="D303">
         <v>77635.8</v>
       </c>
-    </row>
-    <row r="304" spans="1:4">
+      <c r="E303">
+        <v>209</v>
+      </c>
+      <c r="F303">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6">
       <c r="A304" t="s">
         <v>306</v>
       </c>
@@ -6276,8 +8114,14 @@
       <c r="D304">
         <v>66535.7</v>
       </c>
-    </row>
-    <row r="305" spans="1:4">
+      <c r="E304">
+        <v>80</v>
+      </c>
+      <c r="F304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6">
       <c r="A305" t="s">
         <v>307</v>
       </c>
@@ -6290,8 +8134,14 @@
       <c r="D305">
         <v>73254.100000000006</v>
       </c>
-    </row>
-    <row r="306" spans="1:4">
+      <c r="E305">
+        <v>224</v>
+      </c>
+      <c r="F305">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6">
       <c r="A306" t="s">
         <v>308</v>
       </c>
@@ -6304,8 +8154,14 @@
       <c r="D306">
         <v>76970.600000000006</v>
       </c>
-    </row>
-    <row r="307" spans="1:4">
+      <c r="E306">
+        <v>79</v>
+      </c>
+      <c r="F306">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6">
       <c r="A307" t="s">
         <v>309</v>
       </c>
@@ -6318,8 +8174,14 @@
       <c r="D307">
         <v>71678.600000000006</v>
       </c>
-    </row>
-    <row r="308" spans="1:4">
+      <c r="E307">
+        <v>272</v>
+      </c>
+      <c r="F307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6">
       <c r="A308" t="s">
         <v>310</v>
       </c>
@@ -6332,8 +8194,14 @@
       <c r="D308">
         <v>81609.399999999994</v>
       </c>
-    </row>
-    <row r="309" spans="1:4">
+      <c r="E308">
+        <v>89</v>
+      </c>
+      <c r="F308">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6">
       <c r="A309" t="s">
         <v>311</v>
       </c>
@@ -6346,8 +8214,14 @@
       <c r="D309">
         <v>73082.100000000006</v>
       </c>
-    </row>
-    <row r="310" spans="1:4">
+      <c r="E309">
+        <v>347</v>
+      </c>
+      <c r="F309">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6">
       <c r="A310" t="s">
         <v>312</v>
       </c>
@@ -6360,8 +8234,14 @@
       <c r="D310">
         <v>77517.899999999994</v>
       </c>
-    </row>
-    <row r="311" spans="1:4">
+      <c r="E310">
+        <v>166</v>
+      </c>
+      <c r="F310">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6">
       <c r="A311" t="s">
         <v>313</v>
       </c>
@@ -6374,8 +8254,14 @@
       <c r="D311">
         <v>74390</v>
       </c>
-    </row>
-    <row r="312" spans="1:4">
+      <c r="E311">
+        <v>273</v>
+      </c>
+      <c r="F311">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6">
       <c r="A312" t="s">
         <v>314</v>
       </c>
@@ -6388,8 +8274,14 @@
       <c r="D312">
         <v>75640.100000000006</v>
       </c>
-    </row>
-    <row r="313" spans="1:4">
+      <c r="E312">
+        <v>165</v>
+      </c>
+      <c r="F312">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6">
       <c r="A313" t="s">
         <v>315</v>
       </c>
@@ -6402,8 +8294,14 @@
       <c r="D313">
         <v>76633.7</v>
       </c>
-    </row>
-    <row r="314" spans="1:4">
+      <c r="E313">
+        <v>196</v>
+      </c>
+      <c r="F313">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6">
       <c r="A314" t="s">
         <v>316</v>
       </c>
@@ -6416,8 +8314,14 @@
       <c r="D314">
         <v>78128</v>
       </c>
-    </row>
-    <row r="315" spans="1:4">
+      <c r="E314">
+        <v>101</v>
+      </c>
+      <c r="F314">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6">
       <c r="A315" t="s">
         <v>317</v>
       </c>
@@ -6430,8 +8334,14 @@
       <c r="D315">
         <v>68050.399999999994</v>
       </c>
-    </row>
-    <row r="316" spans="1:4">
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6">
       <c r="A316" t="s">
         <v>318</v>
       </c>
@@ -6444,8 +8354,14 @@
       <c r="D316">
         <v>70851.8</v>
       </c>
-    </row>
-    <row r="317" spans="1:4">
+      <c r="E316">
+        <v>89</v>
+      </c>
+      <c r="F316">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6">
       <c r="A317" t="s">
         <v>319</v>
       </c>
@@ -6458,8 +8374,14 @@
       <c r="D317">
         <v>71377</v>
       </c>
-    </row>
-    <row r="318" spans="1:4">
+      <c r="E317">
+        <v>74</v>
+      </c>
+      <c r="F317">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6">
       <c r="A318" t="s">
         <v>320</v>
       </c>
@@ -6472,8 +8394,14 @@
       <c r="D318">
         <v>72864.7</v>
       </c>
-    </row>
-    <row r="319" spans="1:4">
+      <c r="E318">
+        <v>202</v>
+      </c>
+      <c r="F318">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6">
       <c r="A319" t="s">
         <v>321</v>
       </c>
@@ -6486,8 +8414,14 @@
       <c r="D319">
         <v>80852.399999999994</v>
       </c>
-    </row>
-    <row r="320" spans="1:4">
+      <c r="E319">
+        <v>148</v>
+      </c>
+      <c r="F319">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6">
       <c r="A320" t="s">
         <v>322</v>
       </c>
@@ -6500,8 +8434,14 @@
       <c r="D320">
         <v>72650.2</v>
       </c>
-    </row>
-    <row r="321" spans="1:4">
+      <c r="E320">
+        <v>218</v>
+      </c>
+      <c r="F320">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6">
       <c r="A321" t="s">
         <v>323</v>
       </c>
@@ -6514,8 +8454,14 @@
       <c r="D321">
         <v>77474.2</v>
       </c>
-    </row>
-    <row r="322" spans="1:4">
+      <c r="E321">
+        <v>322</v>
+      </c>
+      <c r="F321">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6">
       <c r="A322" t="s">
         <v>324</v>
       </c>
@@ -6528,8 +8474,14 @@
       <c r="D322">
         <v>73031.8</v>
       </c>
-    </row>
-    <row r="323" spans="1:4">
+      <c r="E322">
+        <v>155</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6">
       <c r="A323" t="s">
         <v>325</v>
       </c>
@@ -6542,8 +8494,14 @@
       <c r="D323">
         <v>94775.6</v>
       </c>
-    </row>
-    <row r="324" spans="1:4">
+      <c r="E323">
+        <v>252</v>
+      </c>
+      <c r="F323">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6">
       <c r="A324" t="s">
         <v>326</v>
       </c>
@@ -6556,8 +8514,14 @@
       <c r="D324">
         <v>72346.5</v>
       </c>
-    </row>
-    <row r="325" spans="1:4">
+      <c r="E324">
+        <v>124</v>
+      </c>
+      <c r="F324">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6">
       <c r="A325" t="s">
         <v>327</v>
       </c>
@@ -6570,8 +8534,14 @@
       <c r="D325">
         <v>71909.7</v>
       </c>
-    </row>
-    <row r="326" spans="1:4">
+      <c r="E325">
+        <v>199</v>
+      </c>
+      <c r="F325">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6">
       <c r="A326" t="s">
         <v>328</v>
       </c>
@@ -6584,8 +8554,14 @@
       <c r="D326">
         <v>75619.3</v>
       </c>
-    </row>
-    <row r="327" spans="1:4">
+      <c r="E326">
+        <v>163</v>
+      </c>
+      <c r="F326">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6">
       <c r="A327" t="s">
         <v>329</v>
       </c>
@@ -6598,8 +8574,14 @@
       <c r="D327">
         <v>67405.399999999994</v>
       </c>
-    </row>
-    <row r="328" spans="1:4">
+      <c r="E327">
+        <v>100</v>
+      </c>
+      <c r="F327">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6">
       <c r="A328" t="s">
         <v>330</v>
       </c>
@@ -6612,8 +8594,14 @@
       <c r="D328">
         <v>72579.3</v>
       </c>
-    </row>
-    <row r="329" spans="1:4">
+      <c r="E328">
+        <v>155</v>
+      </c>
+      <c r="F328">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6">
       <c r="A329" t="s">
         <v>331</v>
       </c>
@@ -6626,8 +8614,14 @@
       <c r="D329">
         <v>65447.9</v>
       </c>
-    </row>
-    <row r="330" spans="1:4">
+      <c r="E329">
+        <v>52</v>
+      </c>
+      <c r="F329">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6">
       <c r="A330" t="s">
         <v>332</v>
       </c>
@@ -6640,8 +8634,14 @@
       <c r="D330">
         <v>78933.2</v>
       </c>
-    </row>
-    <row r="331" spans="1:4">
+      <c r="E330">
+        <v>92</v>
+      </c>
+      <c r="F330">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6">
       <c r="A331" t="s">
         <v>333</v>
       </c>
@@ -6654,8 +8654,14 @@
       <c r="D331">
         <v>74694.399999999994</v>
       </c>
-    </row>
-    <row r="332" spans="1:4">
+      <c r="E331">
+        <v>95</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6">
       <c r="A332" t="s">
         <v>334</v>
       </c>
@@ -6668,8 +8674,14 @@
       <c r="D332">
         <v>74257.3</v>
       </c>
-    </row>
-    <row r="333" spans="1:4">
+      <c r="E332">
+        <v>131</v>
+      </c>
+      <c r="F332">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6">
       <c r="A333" t="s">
         <v>335</v>
       </c>
@@ -6682,8 +8694,14 @@
       <c r="D333">
         <v>78390</v>
       </c>
-    </row>
-    <row r="334" spans="1:4">
+      <c r="E333">
+        <v>72</v>
+      </c>
+      <c r="F333">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6">
       <c r="A334" t="s">
         <v>336</v>
       </c>
@@ -6696,8 +8714,14 @@
       <c r="D334">
         <v>65007.7</v>
       </c>
-    </row>
-    <row r="335" spans="1:4">
+      <c r="E334">
+        <v>201</v>
+      </c>
+      <c r="F334">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6">
       <c r="A335" t="s">
         <v>337</v>
       </c>
@@ -6710,8 +8734,14 @@
       <c r="D335">
         <v>74849.8</v>
       </c>
-    </row>
-    <row r="336" spans="1:4">
+      <c r="E335">
+        <v>86</v>
+      </c>
+      <c r="F335">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6">
       <c r="A336" t="s">
         <v>338</v>
       </c>
@@ -6724,8 +8754,14 @@
       <c r="D336">
         <v>69578.7</v>
       </c>
-    </row>
-    <row r="337" spans="1:4">
+      <c r="E336">
+        <v>154</v>
+      </c>
+      <c r="F336">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
         <v>339</v>
       </c>
@@ -6738,8 +8774,14 @@
       <c r="D337">
         <v>78281.399999999994</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="E337">
+        <v>251</v>
+      </c>
+      <c r="F337">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
         <v>340</v>
       </c>
@@ -6752,8 +8794,14 @@
       <c r="D338">
         <v>73307.7</v>
       </c>
-    </row>
-    <row r="339" spans="1:4">
+      <c r="E338">
+        <v>44</v>
+      </c>
+      <c r="F338">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
         <v>341</v>
       </c>
@@ -6766,8 +8814,14 @@
       <c r="D339">
         <v>80399.5</v>
       </c>
-    </row>
-    <row r="340" spans="1:4">
+      <c r="E339">
+        <v>124</v>
+      </c>
+      <c r="F339">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
         <v>342</v>
       </c>
@@ -6780,8 +8834,14 @@
       <c r="D340">
         <v>76917</v>
       </c>
-    </row>
-    <row r="341" spans="1:4">
+      <c r="E340">
+        <v>104</v>
+      </c>
+      <c r="F340">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
         <v>343</v>
       </c>
@@ -6794,8 +8854,14 @@
       <c r="D341">
         <v>87709.3</v>
       </c>
-    </row>
-    <row r="342" spans="1:4">
+      <c r="E341">
+        <v>115</v>
+      </c>
+      <c r="F341">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
       <c r="A342" t="s">
         <v>344</v>
       </c>
@@ -6808,8 +8874,14 @@
       <c r="D342">
         <v>70477.899999999994</v>
       </c>
-    </row>
-    <row r="343" spans="1:4">
+      <c r="E342">
+        <v>70</v>
+      </c>
+      <c r="F342">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
       <c r="A343" t="s">
         <v>345</v>
       </c>
@@ -6822,8 +8894,14 @@
       <c r="D343">
         <v>91781</v>
       </c>
-    </row>
-    <row r="344" spans="1:4">
+      <c r="E343">
+        <v>198</v>
+      </c>
+      <c r="F343">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
       <c r="A344" t="s">
         <v>346</v>
       </c>
@@ -6836,8 +8914,14 @@
       <c r="D344">
         <v>76427.7</v>
       </c>
-    </row>
-    <row r="345" spans="1:4">
+      <c r="E344">
+        <v>155</v>
+      </c>
+      <c r="F344">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
       <c r="A345" t="s">
         <v>347</v>
       </c>
@@ -6850,8 +8934,14 @@
       <c r="D345">
         <v>80794.399999999994</v>
       </c>
-    </row>
-    <row r="346" spans="1:4">
+      <c r="E345">
+        <v>296</v>
+      </c>
+      <c r="F345">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
       <c r="A346" t="s">
         <v>348</v>
       </c>
@@ -6864,8 +8954,14 @@
       <c r="D346">
         <v>65398</v>
       </c>
-    </row>
-    <row r="347" spans="1:4">
+      <c r="E346">
+        <v>26</v>
+      </c>
+      <c r="F346">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
       <c r="A347" t="s">
         <v>349</v>
       </c>
@@ -6878,8 +8974,14 @@
       <c r="D347">
         <v>70073</v>
       </c>
-    </row>
-    <row r="348" spans="1:4">
+      <c r="E347">
+        <v>142</v>
+      </c>
+      <c r="F347">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
       <c r="A348" t="s">
         <v>350</v>
       </c>
@@ -6892,8 +8994,14 @@
       <c r="D348">
         <v>74534.2</v>
       </c>
-    </row>
-    <row r="349" spans="1:4">
+      <c r="E348">
+        <v>117</v>
+      </c>
+      <c r="F348">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
       <c r="A349" t="s">
         <v>351</v>
       </c>
@@ -6906,8 +9014,14 @@
       <c r="D349">
         <v>77579.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:4">
+      <c r="E349">
+        <v>153</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
       <c r="A350" t="s">
         <v>352</v>
       </c>
@@ -6920,8 +9034,14 @@
       <c r="D350">
         <v>75483.600000000006</v>
       </c>
-    </row>
-    <row r="351" spans="1:4">
+      <c r="E350">
+        <v>150</v>
+      </c>
+      <c r="F350">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
       <c r="A351" t="s">
         <v>353</v>
       </c>
@@ -6934,8 +9054,14 @@
       <c r="D351">
         <v>78040.100000000006</v>
       </c>
-    </row>
-    <row r="352" spans="1:4">
+      <c r="E351">
+        <v>241</v>
+      </c>
+      <c r="F351">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
       <c r="A352" t="s">
         <v>354</v>
       </c>
@@ -6948,8 +9074,14 @@
       <c r="D352">
         <v>71093.5</v>
       </c>
-    </row>
-    <row r="353" spans="1:4">
+      <c r="E352">
+        <v>260</v>
+      </c>
+      <c r="F352">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
       <c r="A353" t="s">
         <v>355</v>
       </c>
@@ -6962,8 +9094,14 @@
       <c r="D353">
         <v>84998.2</v>
       </c>
-    </row>
-    <row r="354" spans="1:4">
+      <c r="E353">
+        <v>69</v>
+      </c>
+      <c r="F353">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
       <c r="A354" t="s">
         <v>356</v>
       </c>
@@ -6976,8 +9114,14 @@
       <c r="D354">
         <v>66893.899999999994</v>
       </c>
-    </row>
-    <row r="355" spans="1:4">
+      <c r="E354">
+        <v>45</v>
+      </c>
+      <c r="F354">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
       <c r="A355" t="s">
         <v>357</v>
       </c>
@@ -6990,8 +9134,14 @@
       <c r="D355">
         <v>73185</v>
       </c>
-    </row>
-    <row r="356" spans="1:4">
+      <c r="E355">
+        <v>44</v>
+      </c>
+      <c r="F355">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
       <c r="A356" t="s">
         <v>358</v>
       </c>
@@ -7004,8 +9154,14 @@
       <c r="D356">
         <v>84976</v>
       </c>
-    </row>
-    <row r="357" spans="1:4">
+      <c r="E356">
+        <v>481</v>
+      </c>
+      <c r="F356">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
       <c r="A357" t="s">
         <v>359</v>
       </c>
@@ -7018,8 +9174,14 @@
       <c r="D357">
         <v>68957.7</v>
       </c>
-    </row>
-    <row r="358" spans="1:4">
+      <c r="E357">
+        <v>233</v>
+      </c>
+      <c r="F357">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
       <c r="A358" t="s">
         <v>360</v>
       </c>
@@ -7032,8 +9194,14 @@
       <c r="D358">
         <v>66047.100000000006</v>
       </c>
-    </row>
-    <row r="359" spans="1:4">
+      <c r="E358">
+        <v>56</v>
+      </c>
+      <c r="F358">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
       <c r="A359" t="s">
         <v>361</v>
       </c>
@@ -7046,8 +9214,14 @@
       <c r="D359">
         <v>69300.800000000003</v>
       </c>
-    </row>
-    <row r="360" spans="1:4">
+      <c r="E359">
+        <v>126</v>
+      </c>
+      <c r="F359">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
       <c r="A360" t="s">
         <v>362</v>
       </c>
@@ -7060,8 +9234,14 @@
       <c r="D360">
         <v>73276.600000000006</v>
       </c>
-    </row>
-    <row r="361" spans="1:4">
+      <c r="E360">
+        <v>222</v>
+      </c>
+      <c r="F360">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
       <c r="A361" t="s">
         <v>363</v>
       </c>
@@ -7074,8 +9254,14 @@
       <c r="D361">
         <v>74155.199999999997</v>
       </c>
-    </row>
-    <row r="362" spans="1:4">
+      <c r="E361">
+        <v>57</v>
+      </c>
+      <c r="F361">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
       <c r="A362" t="s">
         <v>364</v>
       </c>
@@ -7088,8 +9274,14 @@
       <c r="D362">
         <v>70323</v>
       </c>
-    </row>
-    <row r="363" spans="1:4">
+      <c r="E362">
+        <v>94</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
       <c r="A363" t="s">
         <v>365</v>
       </c>
@@ -7102,8 +9294,14 @@
       <c r="D363">
         <v>74214.8</v>
       </c>
-    </row>
-    <row r="364" spans="1:4">
+      <c r="E363">
+        <v>79</v>
+      </c>
+      <c r="F363">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
       <c r="A364" t="s">
         <v>366</v>
       </c>
@@ -7116,8 +9314,14 @@
       <c r="D364">
         <v>71390.100000000006</v>
       </c>
-    </row>
-    <row r="365" spans="1:4">
+      <c r="E364">
+        <v>176</v>
+      </c>
+      <c r="F364">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
       <c r="A365" t="s">
         <v>367</v>
       </c>
@@ -7130,8 +9334,14 @@
       <c r="D365">
         <v>68944.2</v>
       </c>
-    </row>
-    <row r="366" spans="1:4">
+      <c r="E365">
+        <v>82</v>
+      </c>
+      <c r="F365">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
       <c r="A366" t="s">
         <v>368</v>
       </c>
@@ -7144,8 +9354,14 @@
       <c r="D366">
         <v>72475.5</v>
       </c>
-    </row>
-    <row r="367" spans="1:4">
+      <c r="E366">
+        <v>44</v>
+      </c>
+      <c r="F366">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
       <c r="A367" t="s">
         <v>369</v>
       </c>
@@ -7158,8 +9374,14 @@
       <c r="D367">
         <v>80519.199999999997</v>
       </c>
-    </row>
-    <row r="368" spans="1:4">
+      <c r="E367">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
       <c r="A368" t="s">
         <v>370</v>
       </c>
@@ -7172,8 +9394,14 @@
       <c r="D368">
         <v>78562.7</v>
       </c>
-    </row>
-    <row r="369" spans="1:4">
+      <c r="E368">
+        <v>211</v>
+      </c>
+      <c r="F368">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
       <c r="A369" t="s">
         <v>371</v>
       </c>
@@ -7186,8 +9414,14 @@
       <c r="D369">
         <v>77853.3</v>
       </c>
-    </row>
-    <row r="370" spans="1:4">
+      <c r="E369">
+        <v>271</v>
+      </c>
+      <c r="F369">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
       <c r="A370" t="s">
         <v>372</v>
       </c>
@@ -7200,8 +9434,14 @@
       <c r="D370">
         <v>79065.899999999994</v>
       </c>
-    </row>
-    <row r="371" spans="1:4">
+      <c r="E370">
+        <v>89</v>
+      </c>
+      <c r="F370">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
       <c r="A371" t="s">
         <v>373</v>
       </c>
@@ -7214,8 +9454,14 @@
       <c r="D371">
         <v>72254.399999999994</v>
       </c>
-    </row>
-    <row r="372" spans="1:4">
+      <c r="E371">
+        <v>129</v>
+      </c>
+      <c r="F371">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
       <c r="A372" t="s">
         <v>374</v>
       </c>
@@ -7228,8 +9474,14 @@
       <c r="D372">
         <v>80205.399999999994</v>
       </c>
-    </row>
-    <row r="373" spans="1:4">
+      <c r="E372">
+        <v>290</v>
+      </c>
+      <c r="F372">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
       <c r="A373" t="s">
         <v>375</v>
       </c>
@@ -7242,8 +9494,14 @@
       <c r="D373">
         <v>70240.899999999994</v>
       </c>
-    </row>
-    <row r="374" spans="1:4">
+      <c r="E373">
+        <v>42</v>
+      </c>
+      <c r="F373">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
       <c r="A374" t="s">
         <v>376</v>
       </c>
@@ -7256,8 +9514,14 @@
       <c r="D374">
         <v>75571.899999999994</v>
       </c>
-    </row>
-    <row r="375" spans="1:4">
+      <c r="E374">
+        <v>72</v>
+      </c>
+      <c r="F374">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
       <c r="A375" t="s">
         <v>377</v>
       </c>
@@ -7270,8 +9534,14 @@
       <c r="D375">
         <v>69298.100000000006</v>
       </c>
-    </row>
-    <row r="376" spans="1:4">
+      <c r="E375">
+        <v>70</v>
+      </c>
+      <c r="F375">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
       <c r="A376" t="s">
         <v>378</v>
       </c>
@@ -7284,8 +9554,14 @@
       <c r="D376">
         <v>74019.399999999994</v>
       </c>
-    </row>
-    <row r="377" spans="1:4">
+      <c r="E376">
+        <v>352</v>
+      </c>
+      <c r="F376">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
       <c r="A377" t="s">
         <v>379</v>
       </c>
@@ -7298,8 +9574,14 @@
       <c r="D377">
         <v>69001.7</v>
       </c>
-    </row>
-    <row r="378" spans="1:4">
+      <c r="E377">
+        <v>68</v>
+      </c>
+      <c r="F377">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
       <c r="A378" t="s">
         <v>380</v>
       </c>
@@ -7312,8 +9594,14 @@
       <c r="D378">
         <v>76958.899999999994</v>
       </c>
-    </row>
-    <row r="379" spans="1:4">
+      <c r="E378">
+        <v>186</v>
+      </c>
+      <c r="F378">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
       <c r="A379" t="s">
         <v>381</v>
       </c>
@@ -7326,8 +9614,14 @@
       <c r="D379">
         <v>75730</v>
       </c>
-    </row>
-    <row r="380" spans="1:4">
+      <c r="E379">
+        <v>246</v>
+      </c>
+      <c r="F379">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
       <c r="A380" t="s">
         <v>382</v>
       </c>
@@ -7340,8 +9634,14 @@
       <c r="D380">
         <v>75504.600000000006</v>
       </c>
-    </row>
-    <row r="381" spans="1:4">
+      <c r="E380">
+        <v>188</v>
+      </c>
+      <c r="F380">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
       <c r="A381" t="s">
         <v>383</v>
       </c>
@@ -7354,8 +9654,14 @@
       <c r="D381">
         <v>78762</v>
       </c>
-    </row>
-    <row r="382" spans="1:4">
+      <c r="E381">
+        <v>306</v>
+      </c>
+      <c r="F381">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
       <c r="A382" t="s">
         <v>384</v>
       </c>
@@ -7368,8 +9674,14 @@
       <c r="D382">
         <v>70986.3</v>
       </c>
-    </row>
-    <row r="383" spans="1:4">
+      <c r="E382">
+        <v>86</v>
+      </c>
+      <c r="F382">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
       <c r="A383" t="s">
         <v>385</v>
       </c>
@@ -7382,8 +9694,14 @@
       <c r="D383">
         <v>67177.399999999994</v>
       </c>
-    </row>
-    <row r="384" spans="1:4">
+      <c r="E383">
+        <v>126</v>
+      </c>
+      <c r="F383">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
       <c r="A384" t="s">
         <v>386</v>
       </c>
@@ -7396,8 +9714,14 @@
       <c r="D384">
         <v>78845.7</v>
       </c>
-    </row>
-    <row r="385" spans="1:4">
+      <c r="E384">
+        <v>243</v>
+      </c>
+      <c r="F384">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
       <c r="A385" t="s">
         <v>387</v>
       </c>
@@ -7410,8 +9734,14 @@
       <c r="D385">
         <v>77839.600000000006</v>
       </c>
-    </row>
-    <row r="386" spans="1:4">
+      <c r="E385">
+        <v>65</v>
+      </c>
+      <c r="F385">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
       <c r="A386" t="s">
         <v>388</v>
       </c>
@@ -7424,8 +9754,14 @@
       <c r="D386">
         <v>80396.899999999994</v>
       </c>
-    </row>
-    <row r="387" spans="1:4">
+      <c r="E386">
+        <v>121</v>
+      </c>
+      <c r="F386">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
       <c r="A387" t="s">
         <v>389</v>
       </c>
@@ -7438,8 +9774,14 @@
       <c r="D387">
         <v>68918.2</v>
       </c>
-    </row>
-    <row r="388" spans="1:4">
+      <c r="E387">
+        <v>141</v>
+      </c>
+      <c r="F387">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
       <c r="A388" t="s">
         <v>390</v>
       </c>
@@ -7452,8 +9794,14 @@
       <c r="D388">
         <v>85737.9</v>
       </c>
-    </row>
-    <row r="389" spans="1:4">
+      <c r="E388">
+        <v>685</v>
+      </c>
+      <c r="F388">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
       <c r="A389" t="s">
         <v>391</v>
       </c>
@@ -7466,8 +9814,14 @@
       <c r="D389">
         <v>68211.899999999994</v>
       </c>
-    </row>
-    <row r="390" spans="1:4">
+      <c r="E389">
+        <v>147</v>
+      </c>
+      <c r="F389">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
       <c r="A390" t="s">
         <v>392</v>
       </c>
@@ -7480,8 +9834,14 @@
       <c r="D390">
         <v>74603.899999999994</v>
       </c>
-    </row>
-    <row r="391" spans="1:4">
+      <c r="E390">
+        <v>195</v>
+      </c>
+      <c r="F390">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
       <c r="A391" t="s">
         <v>393</v>
       </c>
@@ -7494,8 +9854,14 @@
       <c r="D391">
         <v>68955.199999999997</v>
       </c>
-    </row>
-    <row r="392" spans="1:4">
+      <c r="E391">
+        <v>85</v>
+      </c>
+      <c r="F391">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
       <c r="A392" t="s">
         <v>394</v>
       </c>
@@ -7508,8 +9874,14 @@
       <c r="D392">
         <v>78090.399999999994</v>
       </c>
-    </row>
-    <row r="393" spans="1:4">
+      <c r="E392">
+        <v>109</v>
+      </c>
+      <c r="F392">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
       <c r="A393" t="s">
         <v>395</v>
       </c>
@@ -7522,8 +9894,14 @@
       <c r="D393">
         <v>71463.600000000006</v>
       </c>
-    </row>
-    <row r="394" spans="1:4">
+      <c r="E393">
+        <v>212</v>
+      </c>
+      <c r="F393">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
       <c r="A394" t="s">
         <v>396</v>
       </c>
@@ -7536,8 +9914,14 @@
       <c r="D394">
         <v>75647.600000000006</v>
       </c>
-    </row>
-    <row r="395" spans="1:4">
+      <c r="E394">
+        <v>85</v>
+      </c>
+      <c r="F394">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
       <c r="A395" t="s">
         <v>397</v>
       </c>
@@ -7550,8 +9934,14 @@
       <c r="D395">
         <v>70884.7</v>
       </c>
-    </row>
-    <row r="396" spans="1:4">
+      <c r="E395">
+        <v>99</v>
+      </c>
+      <c r="F395">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
       <c r="A396" t="s">
         <v>398</v>
       </c>
@@ -7564,8 +9954,14 @@
       <c r="D396">
         <v>81977.100000000006</v>
       </c>
-    </row>
-    <row r="397" spans="1:4">
+      <c r="E396">
+        <v>211</v>
+      </c>
+      <c r="F396">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
       <c r="A397" t="s">
         <v>399</v>
       </c>
@@ -7578,8 +9974,14 @@
       <c r="D397">
         <v>95325.6</v>
       </c>
-    </row>
-    <row r="398" spans="1:4">
+      <c r="E397">
+        <v>241</v>
+      </c>
+      <c r="F397">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
       <c r="A398" t="s">
         <v>400</v>
       </c>
@@ -7592,8 +9994,14 @@
       <c r="D398">
         <v>71620</v>
       </c>
-    </row>
-    <row r="399" spans="1:4">
+      <c r="E398">
+        <v>51</v>
+      </c>
+      <c r="F398">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
       <c r="A399" t="s">
         <v>401</v>
       </c>
@@ -7606,8 +10014,14 @@
       <c r="D399">
         <v>79594.2</v>
       </c>
-    </row>
-    <row r="400" spans="1:4">
+      <c r="E399">
+        <v>171</v>
+      </c>
+      <c r="F399">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
       <c r="A400" t="s">
         <v>402</v>
       </c>
@@ -7620,8 +10034,14 @@
       <c r="D400">
         <v>82499.3</v>
       </c>
-    </row>
-    <row r="401" spans="1:4">
+      <c r="E400">
+        <v>155</v>
+      </c>
+      <c r="F400">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
       <c r="A401" t="s">
         <v>403</v>
       </c>
@@ -7634,8 +10054,14 @@
       <c r="D401">
         <v>74794</v>
       </c>
-    </row>
-    <row r="402" spans="1:4">
+      <c r="E401">
+        <v>211</v>
+      </c>
+      <c r="F401">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
       <c r="A402" t="s">
         <v>404</v>
       </c>
@@ -7648,8 +10074,14 @@
       <c r="D402">
         <v>81823.399999999994</v>
       </c>
-    </row>
-    <row r="403" spans="1:4">
+      <c r="E402">
+        <v>167</v>
+      </c>
+      <c r="F402">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
       <c r="A403" t="s">
         <v>405</v>
       </c>
@@ -7662,8 +10094,14 @@
       <c r="D403">
         <v>70946.2</v>
       </c>
-    </row>
-    <row r="404" spans="1:4">
+      <c r="E403">
+        <v>201</v>
+      </c>
+      <c r="F403">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
       <c r="A404" t="s">
         <v>406</v>
       </c>
@@ -7676,8 +10114,14 @@
       <c r="D404">
         <v>74705.899999999994</v>
       </c>
-    </row>
-    <row r="405" spans="1:4">
+      <c r="E404">
+        <v>58</v>
+      </c>
+      <c r="F404">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
       <c r="A405" t="s">
         <v>407</v>
       </c>
@@ -7690,8 +10134,14 @@
       <c r="D405">
         <v>70924.899999999994</v>
       </c>
-    </row>
-    <row r="406" spans="1:4">
+      <c r="E405">
+        <v>99</v>
+      </c>
+      <c r="F405">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
       <c r="A406" t="s">
         <v>408</v>
       </c>
@@ -7704,8 +10154,14 @@
       <c r="D406">
         <v>75422.5</v>
       </c>
-    </row>
-    <row r="407" spans="1:4">
+      <c r="E406">
+        <v>250</v>
+      </c>
+      <c r="F406">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
       <c r="A407" t="s">
         <v>409</v>
       </c>
@@ -7718,8 +10174,14 @@
       <c r="D407">
         <v>77391.899999999994</v>
       </c>
-    </row>
-    <row r="408" spans="1:4">
+      <c r="E407">
+        <v>203</v>
+      </c>
+      <c r="F407">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
       <c r="A408" t="s">
         <v>410</v>
       </c>
@@ -7732,8 +10194,14 @@
       <c r="D408">
         <v>71555.5</v>
       </c>
-    </row>
-    <row r="409" spans="1:4">
+      <c r="E408">
+        <v>200</v>
+      </c>
+      <c r="F408">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
       <c r="A409" t="s">
         <v>411</v>
       </c>
@@ -7746,8 +10214,14 @@
       <c r="D409">
         <v>75588.399999999994</v>
       </c>
-    </row>
-    <row r="410" spans="1:4">
+      <c r="E409">
+        <v>148</v>
+      </c>
+      <c r="F409">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
       <c r="A410" t="s">
         <v>412</v>
       </c>
@@ -7760,8 +10234,14 @@
       <c r="D410">
         <v>76327.199999999997</v>
       </c>
-    </row>
-    <row r="411" spans="1:4">
+      <c r="E410">
+        <v>367</v>
+      </c>
+      <c r="F410">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
       <c r="A411" t="s">
         <v>413</v>
       </c>
@@ -7774,8 +10254,14 @@
       <c r="D411">
         <v>73472</v>
       </c>
-    </row>
-    <row r="412" spans="1:4">
+      <c r="E411">
+        <v>86</v>
+      </c>
+      <c r="F411">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
       <c r="A412" t="s">
         <v>414</v>
       </c>
@@ -7788,8 +10274,14 @@
       <c r="D412">
         <v>77981.2</v>
       </c>
-    </row>
-    <row r="413" spans="1:4">
+      <c r="E412">
+        <v>271</v>
+      </c>
+      <c r="F412">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
       <c r="A413" t="s">
         <v>415</v>
       </c>
@@ -7802,8 +10294,14 @@
       <c r="D413">
         <v>74993.600000000006</v>
       </c>
-    </row>
-    <row r="414" spans="1:4">
+      <c r="E413">
+        <v>214</v>
+      </c>
+      <c r="F413">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
       <c r="A414" t="s">
         <v>416</v>
       </c>
@@ -7816,8 +10314,14 @@
       <c r="D414">
         <v>77049.5</v>
       </c>
-    </row>
-    <row r="415" spans="1:4">
+      <c r="E414">
+        <v>172</v>
+      </c>
+      <c r="F414">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6">
       <c r="A415" t="s">
         <v>417</v>
       </c>
@@ -7830,8 +10334,14 @@
       <c r="D415">
         <v>88240.4</v>
       </c>
-    </row>
-    <row r="416" spans="1:4">
+      <c r="E415">
+        <v>111</v>
+      </c>
+      <c r="F415">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6">
       <c r="A416" t="s">
         <v>418</v>
       </c>
@@ -7844,8 +10354,14 @@
       <c r="D416">
         <v>86110.5</v>
       </c>
-    </row>
-    <row r="417" spans="1:4">
+      <c r="E416">
+        <v>77</v>
+      </c>
+      <c r="F416">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6">
       <c r="A417" t="s">
         <v>419</v>
       </c>
@@ -7858,8 +10374,14 @@
       <c r="D417">
         <v>71733.7</v>
       </c>
-    </row>
-    <row r="418" spans="1:4">
+      <c r="E417">
+        <v>221</v>
+      </c>
+      <c r="F417">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6">
       <c r="A418" t="s">
         <v>420</v>
       </c>
@@ -7872,8 +10394,14 @@
       <c r="D418">
         <v>78750</v>
       </c>
-    </row>
-    <row r="419" spans="1:4">
+      <c r="E418">
+        <v>241</v>
+      </c>
+      <c r="F418">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6">
       <c r="A419" t="s">
         <v>421</v>
       </c>
@@ -7886,8 +10414,14 @@
       <c r="D419">
         <v>73683.8</v>
       </c>
-    </row>
-    <row r="420" spans="1:4">
+      <c r="E419">
+        <v>91</v>
+      </c>
+      <c r="F419">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6">
       <c r="A420" t="s">
         <v>422</v>
       </c>
@@ -7900,8 +10434,14 @@
       <c r="D420">
         <v>70761.899999999994</v>
       </c>
-    </row>
-    <row r="421" spans="1:4">
+      <c r="E420">
+        <v>257</v>
+      </c>
+      <c r="F420">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6">
       <c r="A421" t="s">
         <v>423</v>
       </c>
@@ -7914,8 +10454,14 @@
       <c r="D421">
         <v>73506.899999999994</v>
       </c>
-    </row>
-    <row r="422" spans="1:4">
+      <c r="E421">
+        <v>46</v>
+      </c>
+      <c r="F421">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6">
       <c r="A422" t="s">
         <v>424</v>
       </c>
@@ -7928,8 +10474,14 @@
       <c r="D422">
         <v>74968.7</v>
       </c>
-    </row>
-    <row r="423" spans="1:4">
+      <c r="E422">
+        <v>118</v>
+      </c>
+      <c r="F422">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6">
       <c r="A423" t="s">
         <v>425</v>
       </c>
@@ -7942,8 +10494,14 @@
       <c r="D423">
         <v>80472.600000000006</v>
       </c>
-    </row>
-    <row r="424" spans="1:4">
+      <c r="E423">
+        <v>103</v>
+      </c>
+      <c r="F423">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6">
       <c r="A424" t="s">
         <v>426</v>
       </c>
@@ -7956,8 +10514,14 @@
       <c r="D424">
         <v>78200.100000000006</v>
       </c>
-    </row>
-    <row r="425" spans="1:4">
+      <c r="E424">
+        <v>170</v>
+      </c>
+      <c r="F424">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6">
       <c r="A425" t="s">
         <v>427</v>
       </c>
@@ -7970,8 +10534,14 @@
       <c r="D425">
         <v>72565.7</v>
       </c>
-    </row>
-    <row r="426" spans="1:4">
+      <c r="E425">
+        <v>232</v>
+      </c>
+      <c r="F425">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6">
       <c r="A426" t="s">
         <v>428</v>
       </c>
@@ -7984,8 +10554,14 @@
       <c r="D426">
         <v>81430.600000000006</v>
       </c>
-    </row>
-    <row r="427" spans="1:4">
+      <c r="E426">
+        <v>277</v>
+      </c>
+      <c r="F426">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6">
       <c r="A427" t="s">
         <v>429</v>
       </c>
@@ -7998,8 +10574,14 @@
       <c r="D427">
         <v>76118.399999999994</v>
       </c>
-    </row>
-    <row r="428" spans="1:4">
+      <c r="E427">
+        <v>125</v>
+      </c>
+      <c r="F427">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6">
       <c r="A428" t="s">
         <v>430</v>
       </c>
@@ -8012,8 +10594,14 @@
       <c r="D428">
         <v>68042.3</v>
       </c>
-    </row>
-    <row r="429" spans="1:4">
+      <c r="E428">
+        <v>166</v>
+      </c>
+      <c r="F428">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6">
       <c r="A429" t="s">
         <v>431</v>
       </c>
@@ -8026,8 +10614,14 @@
       <c r="D429">
         <v>74888</v>
       </c>
-    </row>
-    <row r="430" spans="1:4">
+      <c r="E429">
+        <v>291</v>
+      </c>
+      <c r="F429">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6">
       <c r="A430" t="s">
         <v>432</v>
       </c>
@@ -8040,8 +10634,14 @@
       <c r="D430">
         <v>90094.1</v>
       </c>
-    </row>
-    <row r="431" spans="1:4">
+      <c r="E430">
+        <v>37</v>
+      </c>
+      <c r="F430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6">
       <c r="A431" t="s">
         <v>433</v>
       </c>
@@ -8054,8 +10654,14 @@
       <c r="D431">
         <v>75677.3</v>
       </c>
-    </row>
-    <row r="432" spans="1:4">
+      <c r="E431">
+        <v>92</v>
+      </c>
+      <c r="F431">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6">
       <c r="A432" t="s">
         <v>434</v>
       </c>
@@ -8068,8 +10674,14 @@
       <c r="D432">
         <v>75140.3</v>
       </c>
-    </row>
-    <row r="433" spans="1:4">
+      <c r="E432">
+        <v>219</v>
+      </c>
+      <c r="F432">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6">
       <c r="A433" t="s">
         <v>435</v>
       </c>
@@ -8082,8 +10694,14 @@
       <c r="D433">
         <v>75249.2</v>
       </c>
-    </row>
-    <row r="434" spans="1:4">
+      <c r="E433">
+        <v>123</v>
+      </c>
+      <c r="F433">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6">
       <c r="A434" t="s">
         <v>436</v>
       </c>
@@ -8096,8 +10714,14 @@
       <c r="D434">
         <v>90022.6</v>
       </c>
-    </row>
-    <row r="435" spans="1:4">
+      <c r="E434">
+        <v>120</v>
+      </c>
+      <c r="F434">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6">
       <c r="A435" t="s">
         <v>437</v>
       </c>
@@ -8110,8 +10734,14 @@
       <c r="D435">
         <v>69870</v>
       </c>
-    </row>
-    <row r="436" spans="1:4">
+      <c r="E435">
+        <v>48</v>
+      </c>
+      <c r="F435">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6">
       <c r="A436" t="s">
         <v>438</v>
       </c>
@@ -8124,8 +10754,14 @@
       <c r="D436">
         <v>72123.100000000006</v>
       </c>
-    </row>
-    <row r="437" spans="1:4">
+      <c r="E436">
+        <v>283</v>
+      </c>
+      <c r="F436">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6">
       <c r="A437" t="s">
         <v>439</v>
       </c>
@@ -8138,8 +10774,14 @@
       <c r="D437">
         <v>66485.3</v>
       </c>
-    </row>
-    <row r="438" spans="1:4">
+      <c r="E437">
+        <v>47</v>
+      </c>
+      <c r="F437">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6">
       <c r="A438" t="s">
         <v>440</v>
       </c>
@@ -8152,8 +10794,14 @@
       <c r="D438">
         <v>74453.399999999994</v>
       </c>
-    </row>
-    <row r="439" spans="1:4">
+      <c r="E438">
+        <v>281</v>
+      </c>
+      <c r="F438">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6">
       <c r="A439" t="s">
         <v>441</v>
       </c>
@@ -8166,8 +10814,14 @@
       <c r="D439">
         <v>78191.100000000006</v>
       </c>
-    </row>
-    <row r="440" spans="1:4">
+      <c r="E439">
+        <v>18</v>
+      </c>
+      <c r="F439">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6">
       <c r="A440" t="s">
         <v>442</v>
       </c>
@@ -8180,8 +10834,14 @@
       <c r="D440">
         <v>75903.899999999994</v>
       </c>
-    </row>
-    <row r="441" spans="1:4">
+      <c r="E440">
+        <v>138</v>
+      </c>
+      <c r="F440">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6">
       <c r="A441" t="s">
         <v>443</v>
       </c>
@@ -8194,8 +10854,14 @@
       <c r="D441">
         <v>73919.600000000006</v>
       </c>
-    </row>
-    <row r="442" spans="1:4">
+      <c r="E441">
+        <v>117</v>
+      </c>
+      <c r="F441">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6">
       <c r="A442" t="s">
         <v>444</v>
       </c>
@@ -8208,8 +10874,14 @@
       <c r="D442">
         <v>70287.199999999997</v>
       </c>
-    </row>
-    <row r="443" spans="1:4">
+      <c r="E442">
+        <v>91</v>
+      </c>
+      <c r="F442">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6">
       <c r="A443" t="s">
         <v>445</v>
       </c>
@@ -8222,8 +10894,14 @@
       <c r="D443">
         <v>76870.7</v>
       </c>
-    </row>
-    <row r="444" spans="1:4">
+      <c r="E443">
+        <v>86</v>
+      </c>
+      <c r="F443">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6">
       <c r="A444" t="s">
         <v>446</v>
       </c>
@@ -8236,8 +10914,14 @@
       <c r="D444">
         <v>68451.7</v>
       </c>
-    </row>
-    <row r="445" spans="1:4">
+      <c r="E444">
+        <v>127</v>
+      </c>
+      <c r="F444">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6">
       <c r="A445" t="s">
         <v>447</v>
       </c>
@@ -8250,8 +10934,14 @@
       <c r="D445">
         <v>84247</v>
       </c>
-    </row>
-    <row r="446" spans="1:4">
+      <c r="E445">
+        <v>130</v>
+      </c>
+      <c r="F445">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6">
       <c r="A446" t="s">
         <v>448</v>
       </c>
@@ -8264,8 +10954,14 @@
       <c r="D446">
         <v>73554</v>
       </c>
-    </row>
-    <row r="447" spans="1:4">
+      <c r="E446">
+        <v>57</v>
+      </c>
+      <c r="F446">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6">
       <c r="A447" t="s">
         <v>449</v>
       </c>
@@ -8278,8 +10974,14 @@
       <c r="D447">
         <v>75149.399999999994</v>
       </c>
-    </row>
-    <row r="448" spans="1:4">
+      <c r="E447">
+        <v>274</v>
+      </c>
+      <c r="F447">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6">
       <c r="A448" t="s">
         <v>450</v>
       </c>
@@ -8292,8 +10994,14 @@
       <c r="D448">
         <v>63491.7</v>
       </c>
-    </row>
-    <row r="449" spans="1:4">
+      <c r="E448">
+        <v>259</v>
+      </c>
+      <c r="F448">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6">
       <c r="A449" t="s">
         <v>451</v>
       </c>
@@ -8306,8 +11014,14 @@
       <c r="D449">
         <v>76837.399999999994</v>
       </c>
-    </row>
-    <row r="450" spans="1:4">
+      <c r="E449">
+        <v>84</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6">
       <c r="A450" t="s">
         <v>452</v>
       </c>
@@ -8320,8 +11034,14 @@
       <c r="D450">
         <v>72275.600000000006</v>
       </c>
-    </row>
-    <row r="451" spans="1:4">
+      <c r="E450">
+        <v>104</v>
+      </c>
+      <c r="F450">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6">
       <c r="A451" t="s">
         <v>453</v>
       </c>
@@ -8334,8 +11054,14 @@
       <c r="D451">
         <v>81680.7</v>
       </c>
-    </row>
-    <row r="452" spans="1:4">
+      <c r="E451">
+        <v>263</v>
+      </c>
+      <c r="F451">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6">
       <c r="A452" t="s">
         <v>454</v>
       </c>
@@ -8348,8 +11074,14 @@
       <c r="D452">
         <v>74370.8</v>
       </c>
-    </row>
-    <row r="453" spans="1:4">
+      <c r="E452">
+        <v>321</v>
+      </c>
+      <c r="F452">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6">
       <c r="A453" t="s">
         <v>455</v>
       </c>
@@ -8362,8 +11094,14 @@
       <c r="D453">
         <v>73733.5</v>
       </c>
-    </row>
-    <row r="454" spans="1:4">
+      <c r="E453">
+        <v>291</v>
+      </c>
+      <c r="F453">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6">
       <c r="A454" t="s">
         <v>456</v>
       </c>
@@ -8376,8 +11114,14 @@
       <c r="D454">
         <v>74595.399999999994</v>
       </c>
-    </row>
-    <row r="455" spans="1:4">
+      <c r="E454">
+        <v>233</v>
+      </c>
+      <c r="F454">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6">
       <c r="A455" t="s">
         <v>457</v>
       </c>
@@ -8390,8 +11134,14 @@
       <c r="D455">
         <v>70289.899999999994</v>
       </c>
-    </row>
-    <row r="456" spans="1:4">
+      <c r="E455">
+        <v>91</v>
+      </c>
+      <c r="F455">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6">
       <c r="A456" t="s">
         <v>458</v>
       </c>
@@ -8404,8 +11154,14 @@
       <c r="D456">
         <v>80642.2</v>
       </c>
-    </row>
-    <row r="457" spans="1:4">
+      <c r="E456">
+        <v>179</v>
+      </c>
+      <c r="F456">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6">
       <c r="A457" t="s">
         <v>459</v>
       </c>
@@ -8418,8 +11174,14 @@
       <c r="D457">
         <v>70958</v>
       </c>
-    </row>
-    <row r="458" spans="1:4">
+      <c r="E457">
+        <v>96</v>
+      </c>
+      <c r="F457">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6">
       <c r="A458" t="s">
         <v>460</v>
       </c>
@@ -8432,8 +11194,14 @@
       <c r="D458">
         <v>74167.7</v>
       </c>
-    </row>
-    <row r="459" spans="1:4">
+      <c r="E458">
+        <v>252</v>
+      </c>
+      <c r="F458">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6">
       <c r="A459" t="s">
         <v>461</v>
       </c>
@@ -8446,8 +11214,14 @@
       <c r="D459">
         <v>70731.399999999994</v>
       </c>
-    </row>
-    <row r="460" spans="1:4">
+      <c r="E459">
+        <v>110</v>
+      </c>
+      <c r="F459">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6">
       <c r="A460" t="s">
         <v>462</v>
       </c>
@@ -8460,8 +11234,14 @@
       <c r="D460">
         <v>73895</v>
       </c>
-    </row>
-    <row r="461" spans="1:4">
+      <c r="E460">
+        <v>96</v>
+      </c>
+      <c r="F460">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6">
       <c r="A461" t="s">
         <v>463</v>
       </c>
@@ -8474,8 +11254,14 @@
       <c r="D461">
         <v>58871.7</v>
       </c>
-    </row>
-    <row r="462" spans="1:4">
+      <c r="E461">
+        <v>44</v>
+      </c>
+      <c r="F461">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6">
       <c r="A462" t="s">
         <v>464</v>
       </c>
@@ -8488,8 +11274,14 @@
       <c r="D462">
         <v>73297.899999999994</v>
       </c>
-    </row>
-    <row r="463" spans="1:4">
+      <c r="E462">
+        <v>216</v>
+      </c>
+      <c r="F462">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6">
       <c r="A463" t="s">
         <v>465</v>
       </c>
@@ -8502,8 +11294,14 @@
       <c r="D463">
         <v>65894</v>
       </c>
-    </row>
-    <row r="464" spans="1:4">
+      <c r="E463">
+        <v>0</v>
+      </c>
+      <c r="F463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6">
       <c r="A464" t="s">
         <v>466</v>
       </c>
@@ -8516,8 +11314,14 @@
       <c r="D464">
         <v>72927.600000000006</v>
       </c>
-    </row>
-    <row r="465" spans="1:4">
+      <c r="E464">
+        <v>116</v>
+      </c>
+      <c r="F464">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6">
       <c r="A465" t="s">
         <v>467</v>
       </c>
@@ -8530,8 +11334,14 @@
       <c r="D465">
         <v>74375.600000000006</v>
       </c>
-    </row>
-    <row r="466" spans="1:4">
+      <c r="E465">
+        <v>299</v>
+      </c>
+      <c r="F465">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6">
       <c r="A466" t="s">
         <v>468</v>
       </c>
@@ -8544,8 +11354,14 @@
       <c r="D466">
         <v>69290.600000000006</v>
       </c>
-    </row>
-    <row r="467" spans="1:4">
+      <c r="E466">
+        <v>101</v>
+      </c>
+      <c r="F466">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6">
       <c r="A467" t="s">
         <v>469</v>
       </c>
@@ -8558,8 +11374,14 @@
       <c r="D467">
         <v>78325</v>
       </c>
-    </row>
-    <row r="468" spans="1:4">
+      <c r="E467">
+        <v>270</v>
+      </c>
+      <c r="F467">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6">
       <c r="A468" t="s">
         <v>470</v>
       </c>
@@ -8572,8 +11394,14 @@
       <c r="D468">
         <v>75403.899999999994</v>
       </c>
-    </row>
-    <row r="469" spans="1:4">
+      <c r="E468">
+        <v>217</v>
+      </c>
+      <c r="F468">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6">
       <c r="A469" t="s">
         <v>471</v>
       </c>
@@ -8586,8 +11414,14 @@
       <c r="D469">
         <v>74292.399999999994</v>
       </c>
-    </row>
-    <row r="470" spans="1:4">
+      <c r="E469">
+        <v>187</v>
+      </c>
+      <c r="F469">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6">
       <c r="A470" t="s">
         <v>472</v>
       </c>
@@ -8600,8 +11434,14 @@
       <c r="D470">
         <v>71192.899999999994</v>
       </c>
-    </row>
-    <row r="471" spans="1:4">
+      <c r="E470">
+        <v>62</v>
+      </c>
+      <c r="F470">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6">
       <c r="A471" t="s">
         <v>473</v>
       </c>
@@ -8614,8 +11454,14 @@
       <c r="D471">
         <v>74575.3</v>
       </c>
-    </row>
-    <row r="472" spans="1:4">
+      <c r="E471">
+        <v>394</v>
+      </c>
+      <c r="F471">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6">
       <c r="A472" t="s">
         <v>474</v>
       </c>
@@ -8628,8 +11474,14 @@
       <c r="D472">
         <v>67147.3</v>
       </c>
-    </row>
-    <row r="473" spans="1:4">
+      <c r="E472">
+        <v>70</v>
+      </c>
+      <c r="F472">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6">
       <c r="A473" t="s">
         <v>475</v>
       </c>
@@ -8642,8 +11494,14 @@
       <c r="D473">
         <v>86415</v>
       </c>
-    </row>
-    <row r="474" spans="1:4">
+      <c r="E473">
+        <v>235</v>
+      </c>
+      <c r="F473">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6">
       <c r="A474" t="s">
         <v>476</v>
       </c>
@@ -8656,8 +11514,14 @@
       <c r="D474">
         <v>73161</v>
       </c>
-    </row>
-    <row r="475" spans="1:4">
+      <c r="E474">
+        <v>411</v>
+      </c>
+      <c r="F474">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6">
       <c r="A475" t="s">
         <v>477</v>
       </c>
@@ -8670,8 +11534,14 @@
       <c r="D475">
         <v>73796</v>
       </c>
-    </row>
-    <row r="476" spans="1:4">
+      <c r="E475">
+        <v>191</v>
+      </c>
+      <c r="F475">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6">
       <c r="A476" t="s">
         <v>478</v>
       </c>
@@ -8684,8 +11554,14 @@
       <c r="D476">
         <v>80612.100000000006</v>
       </c>
-    </row>
-    <row r="477" spans="1:4">
+      <c r="E476">
+        <v>75</v>
+      </c>
+      <c r="F476">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6">
       <c r="A477" t="s">
         <v>479</v>
       </c>
@@ -8698,8 +11574,14 @@
       <c r="D477">
         <v>76243.100000000006</v>
       </c>
-    </row>
-    <row r="478" spans="1:4">
+      <c r="E477">
+        <v>253</v>
+      </c>
+      <c r="F477">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6">
       <c r="A478" t="s">
         <v>480</v>
       </c>
@@ -8712,8 +11594,14 @@
       <c r="D478">
         <v>73345.3</v>
       </c>
-    </row>
-    <row r="479" spans="1:4">
+      <c r="E478">
+        <v>188</v>
+      </c>
+      <c r="F478">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6">
       <c r="A479" t="s">
         <v>481</v>
       </c>
@@ -8726,8 +11614,14 @@
       <c r="D479">
         <v>73578.100000000006</v>
       </c>
-    </row>
-    <row r="480" spans="1:4">
+      <c r="E479">
+        <v>83</v>
+      </c>
+      <c r="F479">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6">
       <c r="A480" t="s">
         <v>482</v>
       </c>
@@ -8740,8 +11634,14 @@
       <c r="D480">
         <v>73721</v>
       </c>
-    </row>
-    <row r="481" spans="1:4">
+      <c r="E480">
+        <v>176</v>
+      </c>
+      <c r="F480">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="481" spans="1:6">
       <c r="A481" t="s">
         <v>483</v>
       </c>
@@ -8754,8 +11654,14 @@
       <c r="D481">
         <v>70815.3</v>
       </c>
-    </row>
-    <row r="482" spans="1:4">
+      <c r="E481">
+        <v>136</v>
+      </c>
+      <c r="F481">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="482" spans="1:6">
       <c r="A482" t="s">
         <v>484</v>
       </c>
@@ -8768,8 +11674,14 @@
       <c r="D482">
         <v>71638</v>
       </c>
-    </row>
-    <row r="483" spans="1:4">
+      <c r="E482">
+        <v>62</v>
+      </c>
+      <c r="F482">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="483" spans="1:6">
       <c r="A483" t="s">
         <v>485</v>
       </c>
@@ -8782,8 +11694,14 @@
       <c r="D483">
         <v>68210.8</v>
       </c>
-    </row>
-    <row r="484" spans="1:4">
+      <c r="E483">
+        <v>118</v>
+      </c>
+      <c r="F483">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="484" spans="1:6">
       <c r="A484" t="s">
         <v>486</v>
       </c>
@@ -8796,8 +11714,14 @@
       <c r="D484">
         <v>66303.399999999994</v>
       </c>
-    </row>
-    <row r="485" spans="1:4">
+      <c r="E484">
+        <v>241</v>
+      </c>
+      <c r="F484">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6">
       <c r="A485" t="s">
         <v>487</v>
       </c>
@@ -8810,8 +11734,14 @@
       <c r="D485">
         <v>73073.899999999994</v>
       </c>
-    </row>
-    <row r="486" spans="1:4">
+      <c r="E485">
+        <v>226</v>
+      </c>
+      <c r="F485">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="486" spans="1:6">
       <c r="A486" t="s">
         <v>488</v>
       </c>
@@ -8824,8 +11754,14 @@
       <c r="D486">
         <v>88711</v>
       </c>
-    </row>
-    <row r="487" spans="1:4">
+      <c r="E486">
+        <v>168</v>
+      </c>
+      <c r="F486">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="487" spans="1:6">
       <c r="A487" t="s">
         <v>489</v>
       </c>
@@ -8838,8 +11774,14 @@
       <c r="D487">
         <v>73078.5</v>
       </c>
-    </row>
-    <row r="488" spans="1:4">
+      <c r="E487">
+        <v>202</v>
+      </c>
+      <c r="F487">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="488" spans="1:6">
       <c r="A488" t="s">
         <v>490</v>
       </c>
@@ -8852,8 +11794,14 @@
       <c r="D488">
         <v>72939.3</v>
       </c>
-    </row>
-    <row r="489" spans="1:4">
+      <c r="E488">
+        <v>112</v>
+      </c>
+      <c r="F488">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="489" spans="1:6">
       <c r="A489" t="s">
         <v>491</v>
       </c>
@@ -8866,8 +11814,14 @@
       <c r="D489">
         <v>76101.3</v>
       </c>
-    </row>
-    <row r="490" spans="1:4">
+      <c r="E489">
+        <v>131</v>
+      </c>
+      <c r="F489">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="490" spans="1:6">
       <c r="A490" t="s">
         <v>492</v>
       </c>
@@ -8880,8 +11834,14 @@
       <c r="D490">
         <v>76177.899999999994</v>
       </c>
-    </row>
-    <row r="491" spans="1:4">
+      <c r="E490">
+        <v>216</v>
+      </c>
+      <c r="F490">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="491" spans="1:6">
       <c r="A491" t="s">
         <v>493</v>
       </c>
@@ -8894,8 +11854,14 @@
       <c r="D491">
         <v>68380.2</v>
       </c>
-    </row>
-    <row r="492" spans="1:4">
+      <c r="E491">
+        <v>59</v>
+      </c>
+      <c r="F491">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="492" spans="1:6">
       <c r="A492" t="s">
         <v>494</v>
       </c>
@@ -8908,8 +11874,14 @@
       <c r="D492">
         <v>68792.899999999994</v>
       </c>
-    </row>
-    <row r="493" spans="1:4">
+      <c r="E492">
+        <v>138</v>
+      </c>
+      <c r="F492">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="493" spans="1:6">
       <c r="A493" t="s">
         <v>495</v>
       </c>
@@ -8922,8 +11894,14 @@
       <c r="D493">
         <v>79943.600000000006</v>
       </c>
-    </row>
-    <row r="494" spans="1:4">
+      <c r="E493">
+        <v>104</v>
+      </c>
+      <c r="F493">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="494" spans="1:6">
       <c r="A494" t="s">
         <v>496</v>
       </c>
@@ -8936,8 +11914,14 @@
       <c r="D494">
         <v>74234.100000000006</v>
       </c>
-    </row>
-    <row r="495" spans="1:4">
+      <c r="E494">
+        <v>193</v>
+      </c>
+      <c r="F494">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6">
       <c r="A495" t="s">
         <v>497</v>
       </c>
@@ -8950,8 +11934,14 @@
       <c r="D495">
         <v>73479.7</v>
       </c>
-    </row>
-    <row r="496" spans="1:4">
+      <c r="E495">
+        <v>210</v>
+      </c>
+      <c r="F495">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="496" spans="1:6">
       <c r="A496" t="s">
         <v>498</v>
       </c>
@@ -8964,8 +11954,14 @@
       <c r="D496">
         <v>75229.100000000006</v>
       </c>
-    </row>
-    <row r="497" spans="1:4">
+      <c r="E496">
+        <v>280</v>
+      </c>
+      <c r="F496">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="497" spans="1:6">
       <c r="A497" t="s">
         <v>499</v>
       </c>
@@ -8978,8 +11974,14 @@
       <c r="D497">
         <v>73150.2</v>
       </c>
-    </row>
-    <row r="498" spans="1:4">
+      <c r="E497">
+        <v>120</v>
+      </c>
+      <c r="F497">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="498" spans="1:6">
       <c r="A498" t="s">
         <v>500</v>
       </c>
@@ -8992,8 +11994,14 @@
       <c r="D498">
         <v>79802.2</v>
       </c>
-    </row>
-    <row r="499" spans="1:4">
+      <c r="E498">
+        <v>254</v>
+      </c>
+      <c r="F498">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="499" spans="1:6">
       <c r="A499" t="s">
         <v>501</v>
       </c>
@@ -9006,8 +12014,14 @@
       <c r="D499">
         <v>69450.100000000006</v>
       </c>
-    </row>
-    <row r="500" spans="1:4">
+      <c r="E499">
+        <v>204</v>
+      </c>
+      <c r="F499">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="500" spans="1:6">
       <c r="A500" t="s">
         <v>502</v>
       </c>
@@ -9020,8 +12034,14 @@
       <c r="D500">
         <v>67294.7</v>
       </c>
-    </row>
-    <row r="501" spans="1:4">
+      <c r="E500">
+        <v>233</v>
+      </c>
+      <c r="F500">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="501" spans="1:6">
       <c r="A501" t="s">
         <v>503</v>
       </c>
@@ -9034,8 +12054,14 @@
       <c r="D501">
         <v>75299.8</v>
       </c>
-    </row>
-    <row r="502" spans="1:4">
+      <c r="E501">
+        <v>159</v>
+      </c>
+      <c r="F501">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="502" spans="1:6">
       <c r="A502" t="s">
         <v>504</v>
       </c>
@@ -9048,8 +12074,14 @@
       <c r="D502">
         <v>76667.100000000006</v>
       </c>
-    </row>
-    <row r="503" spans="1:4">
+      <c r="E502">
+        <v>28</v>
+      </c>
+      <c r="F502">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="503" spans="1:6">
       <c r="A503" t="s">
         <v>505</v>
       </c>
@@ -9062,8 +12094,14 @@
       <c r="D503">
         <v>73911.3</v>
       </c>
-    </row>
-    <row r="504" spans="1:4">
+      <c r="E503">
+        <v>141</v>
+      </c>
+      <c r="F503">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="504" spans="1:6">
       <c r="A504" t="s">
         <v>506</v>
       </c>
@@ -9076,8 +12114,14 @@
       <c r="D504">
         <v>73808.7</v>
       </c>
-    </row>
-    <row r="505" spans="1:4">
+      <c r="E504">
+        <v>190</v>
+      </c>
+      <c r="F504">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6">
       <c r="A505" t="s">
         <v>507</v>
       </c>
@@ -9090,8 +12134,14 @@
       <c r="D505">
         <v>68348.3</v>
       </c>
-    </row>
-    <row r="506" spans="1:4">
+      <c r="E505">
+        <v>145</v>
+      </c>
+      <c r="F505">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6">
       <c r="A506" t="s">
         <v>508</v>
       </c>
@@ -9104,8 +12154,14 @@
       <c r="D506">
         <v>70642</v>
       </c>
-    </row>
-    <row r="507" spans="1:4">
+      <c r="E506">
+        <v>229</v>
+      </c>
+      <c r="F506">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="507" spans="1:6">
       <c r="A507" t="s">
         <v>509</v>
       </c>
@@ -9118,8 +12174,14 @@
       <c r="D507">
         <v>72909.600000000006</v>
       </c>
-    </row>
-    <row r="508" spans="1:4">
+      <c r="E507">
+        <v>115</v>
+      </c>
+      <c r="F507">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6">
       <c r="A508" t="s">
         <v>510</v>
       </c>
@@ -9132,8 +12194,14 @@
       <c r="D508">
         <v>75542.7</v>
       </c>
-    </row>
-    <row r="509" spans="1:4">
+      <c r="E508">
+        <v>138</v>
+      </c>
+      <c r="F508">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6">
       <c r="A509" t="s">
         <v>511</v>
       </c>
@@ -9146,8 +12214,14 @@
       <c r="D509">
         <v>76207.5</v>
       </c>
-    </row>
-    <row r="510" spans="1:4">
+      <c r="E509">
+        <v>121</v>
+      </c>
+      <c r="F509">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="510" spans="1:6">
       <c r="A510" t="s">
         <v>512</v>
       </c>
@@ -9160,8 +12234,14 @@
       <c r="D510">
         <v>71496.600000000006</v>
       </c>
-    </row>
-    <row r="511" spans="1:4">
+      <c r="E510">
+        <v>131</v>
+      </c>
+      <c r="F510">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="511" spans="1:6">
       <c r="A511" t="s">
         <v>513</v>
       </c>
@@ -9174,8 +12254,14 @@
       <c r="D511">
         <v>85741.9</v>
       </c>
-    </row>
-    <row r="512" spans="1:4">
+      <c r="E511">
+        <v>157</v>
+      </c>
+      <c r="F511">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="512" spans="1:6">
       <c r="A512" t="s">
         <v>514</v>
       </c>
@@ -9188,8 +12274,14 @@
       <c r="D512">
         <v>72627</v>
       </c>
-    </row>
-    <row r="513" spans="1:4">
+      <c r="E512">
+        <v>237</v>
+      </c>
+      <c r="F512">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="513" spans="1:6">
       <c r="A513" t="s">
         <v>515</v>
       </c>
@@ -9202,8 +12294,14 @@
       <c r="D513">
         <v>73239.8</v>
       </c>
-    </row>
-    <row r="514" spans="1:4">
+      <c r="E513">
+        <v>93</v>
+      </c>
+      <c r="F513">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="514" spans="1:6">
       <c r="A514" t="s">
         <v>516</v>
       </c>
@@ -9216,8 +12314,14 @@
       <c r="D514">
         <v>72025.7</v>
       </c>
-    </row>
-    <row r="515" spans="1:4">
+      <c r="E514">
+        <v>174</v>
+      </c>
+      <c r="F514">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="515" spans="1:6">
       <c r="A515" t="s">
         <v>517</v>
       </c>
@@ -9230,8 +12334,14 @@
       <c r="D515">
         <v>69287.3</v>
       </c>
-    </row>
-    <row r="516" spans="1:4">
+      <c r="E515">
+        <v>132</v>
+      </c>
+      <c r="F515">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6">
       <c r="A516" t="s">
         <v>518</v>
       </c>
@@ -9244,8 +12354,14 @@
       <c r="D516">
         <v>73736.600000000006</v>
       </c>
-    </row>
-    <row r="517" spans="1:4">
+      <c r="E516">
+        <v>97</v>
+      </c>
+      <c r="F516">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6">
       <c r="A517" t="s">
         <v>519</v>
       </c>
@@ -9258,8 +12374,14 @@
       <c r="D517">
         <v>71651.600000000006</v>
       </c>
-    </row>
-    <row r="518" spans="1:4">
+      <c r="E517">
+        <v>153</v>
+      </c>
+      <c r="F517">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6">
       <c r="A518" t="s">
         <v>520</v>
       </c>
@@ -9272,8 +12394,14 @@
       <c r="D518">
         <v>71568.5</v>
       </c>
-    </row>
-    <row r="519" spans="1:4">
+      <c r="E518">
+        <v>133</v>
+      </c>
+      <c r="F518">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="519" spans="1:6">
       <c r="A519" t="s">
         <v>521</v>
       </c>
@@ -9286,8 +12414,14 @@
       <c r="D519">
         <v>64603.8</v>
       </c>
-    </row>
-    <row r="520" spans="1:4">
+      <c r="E519">
+        <v>7</v>
+      </c>
+      <c r="F519">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6">
       <c r="A520" t="s">
         <v>522</v>
       </c>
@@ -9300,8 +12434,14 @@
       <c r="D520">
         <v>82298</v>
       </c>
-    </row>
-    <row r="521" spans="1:4">
+      <c r="E520">
+        <v>111</v>
+      </c>
+      <c r="F520">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="521" spans="1:6">
       <c r="A521" t="s">
         <v>523</v>
       </c>
@@ -9314,8 +12454,14 @@
       <c r="D521">
         <v>83900.3</v>
       </c>
-    </row>
-    <row r="522" spans="1:4">
+      <c r="E521">
+        <v>125</v>
+      </c>
+      <c r="F521">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="522" spans="1:6">
       <c r="A522" t="s">
         <v>524</v>
       </c>
@@ -9328,8 +12474,14 @@
       <c r="D522">
         <v>75086.5</v>
       </c>
-    </row>
-    <row r="523" spans="1:4">
+      <c r="E522">
+        <v>222</v>
+      </c>
+      <c r="F522">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="523" spans="1:6">
       <c r="A523" t="s">
         <v>525</v>
       </c>
@@ -9342,8 +12494,14 @@
       <c r="D523">
         <v>75059</v>
       </c>
-    </row>
-    <row r="524" spans="1:4">
+      <c r="E523">
+        <v>138</v>
+      </c>
+      <c r="F523">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="524" spans="1:6">
       <c r="A524" t="s">
         <v>526</v>
       </c>
@@ -9356,8 +12514,14 @@
       <c r="D524">
         <v>71925.3</v>
       </c>
-    </row>
-    <row r="525" spans="1:4">
+      <c r="E524">
+        <v>97</v>
+      </c>
+      <c r="F524">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="525" spans="1:6">
       <c r="A525" t="s">
         <v>527</v>
       </c>
@@ -9370,8 +12534,14 @@
       <c r="D525">
         <v>70213.399999999994</v>
       </c>
-    </row>
-    <row r="526" spans="1:4">
+      <c r="E525">
+        <v>77</v>
+      </c>
+      <c r="F525">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="526" spans="1:6">
       <c r="A526" t="s">
         <v>528</v>
       </c>
@@ -9384,8 +12554,14 @@
       <c r="D526">
         <v>77245.5</v>
       </c>
-    </row>
-    <row r="527" spans="1:4">
+      <c r="E526">
+        <v>388</v>
+      </c>
+      <c r="F526">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="527" spans="1:6">
       <c r="A527" t="s">
         <v>529</v>
       </c>
@@ -9398,8 +12574,14 @@
       <c r="D527">
         <v>79334.7</v>
       </c>
-    </row>
-    <row r="528" spans="1:4">
+      <c r="E527">
+        <v>130</v>
+      </c>
+      <c r="F527">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="528" spans="1:6">
       <c r="A528" t="s">
         <v>530</v>
       </c>
@@ -9412,8 +12594,14 @@
       <c r="D528">
         <v>62899.8</v>
       </c>
-    </row>
-    <row r="529" spans="1:4">
+      <c r="E528">
+        <v>116</v>
+      </c>
+      <c r="F528">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="529" spans="1:6">
       <c r="A529" t="s">
         <v>531</v>
       </c>
@@ -9426,8 +12614,14 @@
       <c r="D529">
         <v>68848.3</v>
       </c>
-    </row>
-    <row r="530" spans="1:4">
+      <c r="E529">
+        <v>104</v>
+      </c>
+      <c r="F529">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="530" spans="1:6">
       <c r="A530" t="s">
         <v>532</v>
       </c>
@@ -9440,8 +12634,14 @@
       <c r="D530">
         <v>76221.899999999994</v>
       </c>
-    </row>
-    <row r="531" spans="1:4">
+      <c r="E530">
+        <v>109</v>
+      </c>
+      <c r="F530">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="531" spans="1:6">
       <c r="A531" t="s">
         <v>533</v>
       </c>
@@ -9454,8 +12654,14 @@
       <c r="D531">
         <v>66479.199999999997</v>
       </c>
-    </row>
-    <row r="532" spans="1:4">
+      <c r="E531">
+        <v>41</v>
+      </c>
+      <c r="F531">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="532" spans="1:6">
       <c r="A532" t="s">
         <v>534</v>
       </c>
@@ -9468,8 +12674,14 @@
       <c r="D532">
         <v>56129.2</v>
       </c>
-    </row>
-    <row r="533" spans="1:4">
+      <c r="E532">
+        <v>12</v>
+      </c>
+      <c r="F532">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:6">
       <c r="A533" t="s">
         <v>535</v>
       </c>
@@ -9482,8 +12694,14 @@
       <c r="D533">
         <v>76079.100000000006</v>
       </c>
-    </row>
-    <row r="534" spans="1:4">
+      <c r="E533">
+        <v>112</v>
+      </c>
+      <c r="F533">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6">
       <c r="A534" t="s">
         <v>536</v>
       </c>
@@ -9496,8 +12714,14 @@
       <c r="D534">
         <v>65790</v>
       </c>
-    </row>
-    <row r="535" spans="1:4">
+      <c r="E534">
+        <v>88</v>
+      </c>
+      <c r="F534">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="535" spans="1:6">
       <c r="A535" t="s">
         <v>537</v>
       </c>
@@ -9510,8 +12734,14 @@
       <c r="D535">
         <v>65564.100000000006</v>
       </c>
-    </row>
-    <row r="536" spans="1:4">
+      <c r="E535">
+        <v>182</v>
+      </c>
+      <c r="F535">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="536" spans="1:6">
       <c r="A536" t="s">
         <v>538</v>
       </c>
@@ -9524,8 +12754,14 @@
       <c r="D536">
         <v>75277.3</v>
       </c>
-    </row>
-    <row r="537" spans="1:4">
+      <c r="E536">
+        <v>267</v>
+      </c>
+      <c r="F536">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="537" spans="1:6">
       <c r="A537" t="s">
         <v>539</v>
       </c>
@@ -9538,8 +12774,14 @@
       <c r="D537">
         <v>80532.899999999994</v>
       </c>
-    </row>
-    <row r="538" spans="1:4">
+      <c r="E537">
+        <v>230</v>
+      </c>
+      <c r="F537">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="538" spans="1:6">
       <c r="A538" t="s">
         <v>540</v>
       </c>
@@ -9552,8 +12794,14 @@
       <c r="D538">
         <v>79825.3</v>
       </c>
-    </row>
-    <row r="539" spans="1:4">
+      <c r="E538">
+        <v>97</v>
+      </c>
+      <c r="F538">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6">
       <c r="A539" t="s">
         <v>541</v>
       </c>
@@ -9566,8 +12814,14 @@
       <c r="D539">
         <v>74580.100000000006</v>
       </c>
-    </row>
-    <row r="540" spans="1:4">
+      <c r="E539">
+        <v>112</v>
+      </c>
+      <c r="F539">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="540" spans="1:6">
       <c r="A540" t="s">
         <v>542</v>
       </c>
@@ -9580,8 +12834,14 @@
       <c r="D540">
         <v>75685.899999999994</v>
       </c>
-    </row>
-    <row r="541" spans="1:4">
+      <c r="E540">
+        <v>120</v>
+      </c>
+      <c r="F540">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="541" spans="1:6">
       <c r="A541" t="s">
         <v>543</v>
       </c>
@@ -9594,8 +12854,14 @@
       <c r="D541">
         <v>74222.8</v>
       </c>
-    </row>
-    <row r="542" spans="1:4">
+      <c r="E541">
+        <v>253</v>
+      </c>
+      <c r="F541">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6">
       <c r="A542" t="s">
         <v>544</v>
       </c>
@@ -9608,8 +12874,14 @@
       <c r="D542">
         <v>74527.5</v>
       </c>
-    </row>
-    <row r="543" spans="1:4">
+      <c r="E542">
+        <v>259</v>
+      </c>
+      <c r="F542">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="543" spans="1:6">
       <c r="A543" t="s">
         <v>545</v>
       </c>
@@ -9621,6 +12893,12 @@
       </c>
       <c r="D543">
         <v>72068</v>
+      </c>
+      <c r="E543">
+        <v>50</v>
+      </c>
+      <c r="F543">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
